--- a/V2.2探头测试记录.xlsx
+++ b/V2.2探头测试记录.xlsx
@@ -1,14 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git-doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39FD4141-6025-4F0C-817E-C316B79AA651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView xWindow="230" yWindow="1000" windowWidth="19200" windowHeight="14510" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="10-12" sheetId="1" r:id="rId1"/>
+    <sheet name="10-22" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -20,8 +26,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -29,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="30">
   <si>
     <t>型号</t>
   </si>
@@ -84,18 +88,58 @@
   <si>
     <t>26mm</t>
   </si>
+  <si>
+    <t>26*9mm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>26*8mm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>26*7mm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>26*6mm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>压差(Pa)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>流量(L/min)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q/根号P</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>反向</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>28*9mm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>28*8mm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>28*7mm</t>
+  </si>
+  <si>
+    <t>28*6mm</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,345 +155,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -472,255 +208,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -730,65 +224,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1038,34 +494,34 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="Y13" sqref="Y13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="12.625"/>
-    <col min="5" max="7" width="12.625"/>
-    <col min="9" max="10" width="12.625"/>
-    <col min="11" max="11" width="13.75"/>
-    <col min="12" max="12" width="12.375" customWidth="1"/>
-    <col min="13" max="13" width="9.125" customWidth="1"/>
-    <col min="14" max="14" width="12.625" customWidth="1"/>
-    <col min="16" max="16" width="12.375" customWidth="1"/>
-    <col min="17" max="17" width="13.25" customWidth="1"/>
-    <col min="18" max="18" width="15.25" customWidth="1"/>
-    <col min="19" max="19" width="13.75"/>
+    <col min="1" max="2" width="12.6328125"/>
+    <col min="5" max="7" width="12.6328125"/>
+    <col min="9" max="10" width="12.6328125"/>
+    <col min="11" max="11" width="13.7265625"/>
+    <col min="12" max="12" width="12.36328125" customWidth="1"/>
+    <col min="13" max="13" width="9.08984375" customWidth="1"/>
+    <col min="14" max="14" width="12.6328125" customWidth="1"/>
+    <col min="16" max="16" width="12.36328125" customWidth="1"/>
+    <col min="17" max="17" width="13.26953125" customWidth="1"/>
+    <col min="18" max="18" width="15.26953125" customWidth="1"/>
+    <col min="19" max="19" width="13.7265625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1099,7 +555,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1115,23 +571,23 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1">
         <f>D2/SQRT(B2)</f>
-        <v>19.9086299720561</v>
+        <v>19.908629972056101</v>
       </c>
       <c r="G2" s="1">
         <f>D2/SQRT(ABS(C2))</f>
-        <v>19.6684314412165</v>
+        <v>19.668431441216502</v>
       </c>
       <c r="I2">
         <f>(B2-B11)/B2</f>
-        <v>0.153388822829964</v>
+        <v>0.15338882282996399</v>
       </c>
       <c r="J2">
         <f>(B2/1000)/(D2/60)</f>
-        <v>0.015138</v>
+        <v>1.5138E-2</v>
       </c>
       <c r="K2">
         <f>(F3-F2)/F2</f>
-        <v>-0.0313381471721069</v>
+        <v>-3.1338147172106902E-2</v>
       </c>
       <c r="P2">
         <v>800</v>
@@ -1141,10 +597,10 @@
       </c>
       <c r="R2">
         <f>(P2/1000/60)/(3.14*(Q2/1000/2)*(Q2/1000/2))</f>
-        <v>27.1762208067941</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>27.176220806794099</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1164,7 +620,7 @@
       </c>
       <c r="G3" s="1">
         <f>D3/SQRT(ABS(C3))</f>
-        <v>19.0040968802611</v>
+        <v>19.004096880261098</v>
       </c>
       <c r="I3">
         <f>(B3-B12)/B3</f>
@@ -1172,11 +628,11 @@
       </c>
       <c r="J3">
         <f>(B3/1000)/(D3/60)</f>
-        <v>0.0242</v>
+        <v>2.4199999999999999E-2</v>
       </c>
       <c r="K3">
         <f>(F4-F3)/F3</f>
-        <v>-0.0151940794592312</v>
+        <v>-1.5194079459231199E-2</v>
       </c>
       <c r="P3">
         <v>800</v>
@@ -1186,10 +642,10 @@
       </c>
       <c r="R3">
         <f>(P3/1000/60)/(3.14*(Q3/1000/2)*(Q3/1000/2))</f>
-        <v>4.71809389006841</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>4.7180938900684097</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1205,26 +661,26 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1">
         <f>D4/SQRT(B4)</f>
-        <v>18.9917166700101</v>
+        <v>18.991716670010099</v>
       </c>
       <c r="G4" s="1">
         <f>D4/SQRT(ABS(C4))</f>
-        <v>18.5296421844832</v>
+        <v>18.529642184483201</v>
       </c>
       <c r="I4">
         <f>(B4-B13)/B4</f>
-        <v>0.128944995491434</v>
+        <v>0.12894499549143401</v>
       </c>
       <c r="J4">
         <f>(B4/1000)/(D4/60)</f>
-        <v>0.03327</v>
+        <v>3.3270000000000001E-2</v>
       </c>
       <c r="K4">
         <f>(F5-F4)/F4</f>
-        <v>-0.0199290434756183</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>-1.9929043475618299E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1240,26 +696,26 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1">
         <f>D5/SQRT(B5)</f>
-        <v>18.6132299228169</v>
+        <v>18.613229922816899</v>
       </c>
       <c r="G5" s="1">
         <f>D5/SQRT(ABS(C5))</f>
-        <v>18.1226045765196</v>
+        <v>18.122604576519599</v>
       </c>
       <c r="I5">
         <f>(B5-B14)/B5</f>
-        <v>0.128048780487805</v>
+        <v>0.12804878048780499</v>
       </c>
       <c r="J5">
         <f>(B5/1000)/(D5/60)</f>
-        <v>0.043296</v>
+        <v>4.3296000000000001E-2</v>
       </c>
       <c r="K5">
         <f>(F6-F5)/F5</f>
-        <v>-0.00177372494883114</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>-1.7737249488311399E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1267,7 +723,7 @@
         <v>260.7</v>
       </c>
       <c r="C6" s="1">
-        <v>-286.6</v>
+        <v>-286.60000000000002</v>
       </c>
       <c r="D6" s="1">
         <v>300</v>
@@ -1275,11 +731,11 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1">
         <f>D6/SQRT(B6)</f>
-        <v>18.5802151725244</v>
+        <v>18.580215172524401</v>
       </c>
       <c r="G6" s="1">
         <f>D6/SQRT(ABS(C6))</f>
-        <v>17.7207933737414</v>
+        <v>17.720793373741401</v>
       </c>
       <c r="I6">
         <f>(B6-B15)/B6</f>
@@ -1287,10 +743,10 @@
       </c>
       <c r="J6">
         <f>(B6/1000)/(D6/60)</f>
-        <v>0.05214</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
+        <v>5.2139999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1315,7 +771,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1334,14 +790,14 @@
         <v>26</v>
       </c>
       <c r="R8">
-        <v>8.8400507247</v>
+        <v>8.8400507246999993</v>
       </c>
       <c r="S8">
         <f t="shared" ref="S8:S10" si="0">(1.29/2)*(((P8/60/1000)^2)/(((((Q8/1000/2)^2)*3.14)-(((R8/1000/2)^2)*3.14))^2))*(1-(((((Q8/1000/2)^2)*3.14)-(((R8/1000/2)^2)*3.14))/(((Q8/1000/2)^2)*3.14))^2)</f>
-        <v>113.408061101888</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
+        <v>113.40806110188799</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -1360,14 +816,14 @@
         <v>24</v>
       </c>
       <c r="R9">
-        <v>8.3966174</v>
+        <v>8.3966174000000002</v>
       </c>
       <c r="S9">
         <f t="shared" si="0"/>
-        <v>167.359370141582</v>
-      </c>
-    </row>
-    <row r="10" spans="16:19">
+        <v>167.35937014158199</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="P10">
         <v>800</v>
       </c>
@@ -1379,10 +835,10 @@
       </c>
       <c r="S10">
         <f t="shared" si="0"/>
-        <v>507.642334783853</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>507.64233478385302</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -1397,27 +853,27 @@
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1">
-        <f>D11/SQRT(B11)</f>
-        <v>21.6371161203958</v>
+        <f t="shared" ref="F11:F16" si="1">D11/SQRT(B11)</f>
+        <v>21.637116120395799</v>
       </c>
       <c r="G11" s="1">
         <f>D11/SQRT(ABS(C11))</f>
-        <v>21.1951951699649</v>
+        <v>21.195195169964901</v>
       </c>
       <c r="I11">
-        <f>(B11-B20)/B11</f>
-        <v>0.0557116104868913</v>
+        <f t="shared" ref="I11:I16" si="2">(B11-B20)/B11</f>
+        <v>5.57116104868913E-2</v>
       </c>
       <c r="J11">
         <f>(B11/1000)/(D11/60)</f>
-        <v>0.012816</v>
+        <v>1.2815999999999999E-2</v>
       </c>
       <c r="K11">
         <f>(F12-F11)/F11</f>
-        <v>-0.0413920226171163</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>-4.1392022617116303E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -1432,27 +888,27 @@
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1">
-        <f>D12/SQRT(B12)</f>
-        <v>20.7415121205712</v>
+        <f t="shared" si="1"/>
+        <v>20.741512120571201</v>
       </c>
       <c r="G12" s="1">
         <f>D12/SQRT(ABS(C12))</f>
         <v>20.3185638443579</v>
       </c>
       <c r="I12">
-        <f>(B12-B21)/B12</f>
-        <v>0.0650095602294455</v>
+        <f t="shared" si="2"/>
+        <v>6.5009560229445498E-2</v>
       </c>
       <c r="J12">
         <f>(B12/1000)/(D12/60)</f>
-        <v>0.02092</v>
+        <v>2.0920000000000001E-2</v>
       </c>
       <c r="K12">
         <f>(F13-F12)/F12</f>
-        <v>-0.0189276909695423</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
+        <v>-1.8927690969542301E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1467,7 +923,7 @@
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1">
-        <f>D13/SQRT(B13)</f>
+        <f t="shared" si="1"/>
         <v>20.348923188912</v>
       </c>
       <c r="G13" s="1">
@@ -1475,16 +931,16 @@
         <v>19.716158838353</v>
       </c>
       <c r="I13">
-        <f>(B13-B22)/B13</f>
-        <v>0.0486542443064181</v>
+        <f t="shared" si="2"/>
+        <v>4.8654244306418098E-2</v>
       </c>
       <c r="J13">
         <f>(B13/1000)/(D13/60)</f>
-        <v>0.02898</v>
+        <v>2.8979999999999999E-2</v>
       </c>
       <c r="K13">
         <f>(F14-F13)/F13</f>
-        <v>-0.0204328446581424</v>
+        <v>-2.04328446581424E-2</v>
       </c>
       <c r="P13" t="s">
         <v>7</v>
@@ -1499,12 +955,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="1">
-        <v>157.3</v>
+        <v>157.30000000000001</v>
       </c>
       <c r="C14" s="1">
         <v>-167.8</v>
@@ -1514,24 +970,24 @@
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1">
-        <f>D14/SQRT(B14)</f>
+        <f t="shared" si="1"/>
         <v>19.9331368024325</v>
       </c>
       <c r="G14" s="1">
         <f>D14/SQRT(ABS(C14))</f>
-        <v>19.2994099102637</v>
+        <v>19.299409910263702</v>
       </c>
       <c r="I14">
-        <f>(B14-B23)/B14</f>
-        <v>0.0406865861411316</v>
+        <f t="shared" si="2"/>
+        <v>4.0686586141131603E-2</v>
       </c>
       <c r="J14">
         <f>(B14/1000)/(D14/60)</f>
-        <v>0.037752</v>
+        <v>3.7752000000000001E-2</v>
       </c>
       <c r="K14">
         <f>(F15-F14)/F14</f>
-        <v>-0.0118983718330352</v>
+        <v>-1.1898371833035199E-2</v>
       </c>
       <c r="P14">
         <v>800</v>
@@ -1540,14 +996,14 @@
         <v>530.66</v>
       </c>
       <c r="R14">
-        <v>61.345</v>
+        <v>61.344999999999999</v>
       </c>
       <c r="S14">
         <f>(1.29/2)*(((P14/60/1000)^2)/(((Q14-R14)/1000000)^2))*(1-((((Q14-R14)/1000000)/(Q14/1000000))^2))</f>
         <v>113.408061101919</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1562,20 +1018,20 @@
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1">
-        <f>D15/SQRT(B15)</f>
+        <f t="shared" si="1"/>
         <v>19.6959649289584</v>
       </c>
       <c r="G15" s="1">
         <f>D15/SQRT(ABS(C15))</f>
-        <v>19.1545732480449</v>
+        <v>19.154573248044901</v>
       </c>
       <c r="I15">
-        <f>(B15-B24)/B15</f>
-        <v>0.0521551724137931</v>
+        <f t="shared" si="2"/>
+        <v>5.2155172413793097E-2</v>
       </c>
       <c r="J15">
-        <f t="shared" ref="J15:J20" si="1">(B15/1000)/(D15/60)</f>
-        <v>0.0464</v>
+        <f t="shared" ref="J15:J20" si="3">(B15/1000)/(D15/60)</f>
+        <v>4.6399999999999997E-2</v>
       </c>
       <c r="P15">
         <v>800</v>
@@ -1584,14 +1040,14 @@
         <v>530.66</v>
       </c>
       <c r="R15">
-        <v>61.345</v>
+        <v>61.344999999999999</v>
       </c>
       <c r="S15">
         <f>(1.29/2)*(((P15/60/1000)^2)/(((Q15-R15)/1000000)^2))*(1-((((Q15-R15)/1000000)/(Q15/1000000))^2))</f>
         <v>113.408061101919</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -1604,20 +1060,20 @@
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1">
-        <f>D16/SQRT(B16)</f>
+        <f t="shared" si="1"/>
         <v>20.6418738616856</v>
       </c>
       <c r="G16" s="1"/>
       <c r="I16">
-        <f>(B16-B25)/B16</f>
-        <v>0.0782608695652174</v>
+        <f t="shared" si="2"/>
+        <v>7.8260869565217397E-2</v>
       </c>
       <c r="J16">
-        <f t="shared" si="1"/>
-        <v>0.0985714285714286</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19">
+        <f t="shared" si="3"/>
+        <v>9.8571428571428601E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -1646,24 +1102,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <f>(800/F16)^2</f>
-        <v>1502.04081632653</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3">
+        <v>1502.0408163265299</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2">
         <v>800</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="2"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="J18">
         <f>(B18/1000)/(D18/60)</f>
-        <v>0.11265306122449</v>
+        <v>0.11265306122448999</v>
       </c>
       <c r="P18">
         <v>800</v>
@@ -1672,14 +1128,14 @@
         <v>26</v>
       </c>
       <c r="R18">
-        <v>61.345</v>
+        <v>61.344999999999999</v>
       </c>
       <c r="S18">
-        <f t="shared" ref="S18:S20" si="2">(1.29/2)*(((P18/60/1000)^2)/(((((Q18/2)^2*3.14)-R18)/1000000)^2))*(1-((((((Q18/2)^2*3.14)-R18)/1000000)/(((Q18/2)^2*3.14)/1000000))^2))</f>
+        <f t="shared" ref="S18:S20" si="4">(1.29/2)*(((P18/60/1000)^2)/(((((Q18/2)^2*3.14)-R18)/1000000)^2))*(1-((((((Q18/2)^2*3.14)-R18)/1000000)/(((Q18/2)^2*3.14)/1000000))^2))</f>
         <v>113.408061101919</v>
       </c>
     </row>
-    <row r="19" spans="16:19">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="P19">
         <v>800</v>
       </c>
@@ -1687,19 +1143,19 @@
         <v>26</v>
       </c>
       <c r="R19">
-        <v>111.585</v>
+        <v>111.58499999999999</v>
       </c>
       <c r="S19">
-        <f t="shared" si="2"/>
-        <v>245.71362322542</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19">
+        <f t="shared" si="4"/>
+        <v>245.71362322542001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B20" s="1">
-        <v>20.17</v>
+        <v>20.170000000000002</v>
       </c>
       <c r="C20" s="1">
         <v>-19.8</v>
@@ -1709,20 +1165,20 @@
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1">
-        <f>D20/SQRT(B20)</f>
+        <f t="shared" ref="F20:F26" si="5">D20/SQRT(B20)</f>
         <v>22.2662484609674</v>
       </c>
       <c r="G20" s="1">
         <f>D20/SQRT(ABS(C20))</f>
-        <v>22.4733287487747</v>
+        <v>22.473328748774701</v>
       </c>
       <c r="J20">
-        <f t="shared" si="1"/>
-        <v>0.012102</v>
+        <f t="shared" si="3"/>
+        <v>1.2102E-2</v>
       </c>
       <c r="K20">
         <f>(F21-F20)/F20</f>
-        <v>-0.0366374074822208</v>
+        <v>-3.6637407482220802E-2</v>
       </c>
       <c r="P20">
         <v>800</v>
@@ -1731,14 +1187,14 @@
         <v>26</v>
       </c>
       <c r="R20">
-        <v>86.9674</v>
+        <v>86.967399999999998</v>
       </c>
       <c r="S20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>175.272082310814</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>17</v>
       </c>
@@ -1753,23 +1209,23 @@
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1">
-        <f>D21/SQRT(B21)</f>
-        <v>21.4504708430026</v>
+        <f t="shared" si="5"/>
+        <v>21.450470843002599</v>
       </c>
       <c r="G21" s="1">
         <f>D21/SQRT(ABS(C21))</f>
-        <v>21.7642875033004</v>
+        <v>21.764287503300402</v>
       </c>
       <c r="J21">
-        <f t="shared" ref="J21:J27" si="3">(B21/1000)/(D21/60)</f>
-        <v>0.01956</v>
+        <f t="shared" ref="J21:J27" si="6">(B21/1000)/(D21/60)</f>
+        <v>1.9560000000000001E-2</v>
       </c>
       <c r="K21">
-        <f t="shared" ref="K21:K26" si="4">(F22-F21)/F21</f>
-        <v>-0.0273974352272462</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <f t="shared" ref="K21:K25" si="7">(F22-F21)/F21</f>
+        <v>-2.7397435227246199E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1784,23 +1240,23 @@
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1">
-        <f>D22/SQRT(B22)</f>
+        <f t="shared" si="5"/>
         <v>20.8627829574875</v>
       </c>
       <c r="G22" s="1">
         <f>D22/SQRT(ABS(C22))</f>
-        <v>21.0994412678188</v>
+        <v>21.099441267818801</v>
       </c>
       <c r="J22">
-        <f t="shared" si="3"/>
-        <v>0.02757</v>
+        <f t="shared" si="6"/>
+        <v>2.7570000000000001E-2</v>
       </c>
       <c r="K22">
-        <f t="shared" si="4"/>
-        <v>-0.0245092652285635</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <f t="shared" si="7"/>
+        <v>-2.45092652285635E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>17</v>
       </c>
@@ -1815,23 +1271,23 @@
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1">
-        <f>D23/SQRT(B23)</f>
+        <f t="shared" si="5"/>
         <v>20.3514514765765</v>
       </c>
       <c r="G23" s="1">
         <f>D23/SQRT(ABS(C23))</f>
-        <v>20.6477638030905</v>
+        <v>20.647763803090498</v>
       </c>
       <c r="J23">
-        <f t="shared" si="3"/>
-        <v>0.036216</v>
+        <f t="shared" si="6"/>
+        <v>3.6215999999999998E-2</v>
       </c>
       <c r="K23">
-        <f t="shared" si="4"/>
-        <v>-0.00593850605120728</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+        <f t="shared" si="7"/>
+        <v>-5.9385060512072802E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>17</v>
       </c>
@@ -1846,19 +1302,19 @@
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1">
-        <f>D24/SQRT(B24)</f>
-        <v>20.230594258832</v>
+        <f t="shared" si="5"/>
+        <v>20.230594258831999</v>
       </c>
       <c r="G24" s="1">
         <f>D24/SQRT(ABS(C24))</f>
         <v>20.4598301841142</v>
       </c>
       <c r="J24">
-        <f t="shared" si="3"/>
-        <v>0.04398</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <f t="shared" si="6"/>
+        <v>4.3979999999999998E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>17</v>
       </c>
@@ -1871,20 +1327,20 @@
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1">
-        <f>D25/SQRT(B25)</f>
-        <v>21.5003290891883</v>
+        <f t="shared" si="5"/>
+        <v>21.500329089188298</v>
       </c>
       <c r="G25" s="1"/>
       <c r="J25">
-        <f t="shared" si="3"/>
-        <v>0.0908571428571429</v>
+        <f t="shared" si="6"/>
+        <v>9.08571428571429E-2</v>
       </c>
       <c r="K25">
-        <f t="shared" si="4"/>
-        <v>-0.0131489474089822</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+        <f t="shared" si="7"/>
+        <v>-1.31489474089822E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>17</v>
       </c>
@@ -1897,72 +1353,2973 @@
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1">
-        <f>D26/SQRT(B26)</f>
-        <v>21.2176223927187</v>
+        <f t="shared" si="5"/>
+        <v>21.217622392718699</v>
       </c>
       <c r="G26" s="1"/>
       <c r="J26">
-        <f t="shared" si="3"/>
-        <v>0.0979591836734694</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
+        <f t="shared" si="6"/>
+        <v>9.7959183673469397E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="2">
         <f>(800/F25)^2</f>
         <v>1384.48979591837</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3">
+      <c r="C27" s="2"/>
+      <c r="D27" s="2">
         <v>800</v>
       </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
       <c r="J27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.103836734693878</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I130"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K133" sqref="K133"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="4" width="12.6328125" customWidth="1"/>
+    <col min="7" max="9" width="12.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2">
+        <v>16.134385999999999</v>
+      </c>
+      <c r="C2">
+        <v>99.895179999999996</v>
+      </c>
+      <c r="D2">
+        <f>C2/SQRT(B2)</f>
+        <v>24.869572065518593</v>
+      </c>
+      <c r="G2">
+        <v>-16.423496</v>
+      </c>
+      <c r="H2">
+        <v>99.923439000000002</v>
+      </c>
+      <c r="I2">
+        <f>H2/SQRT(ABS(G2))</f>
+        <v>24.656678245549138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3">
+        <v>39.395657</v>
+      </c>
+      <c r="C3">
+        <v>149.96000699999999</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D74" si="0">C3/SQRT(B3)</f>
+        <v>23.891932452055347</v>
+      </c>
+      <c r="G3">
+        <v>-39.870925999999997</v>
+      </c>
+      <c r="H3">
+        <v>149.96279899999999</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I74" si="1">H3/SQRT(ABS(G3))</f>
+        <v>23.749549535338559</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4">
+        <v>75.242500000000007</v>
+      </c>
+      <c r="C4">
+        <v>199.986526</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>23.055212410752073</v>
+      </c>
+      <c r="G4">
+        <v>-75.988701000000006</v>
+      </c>
+      <c r="H4">
+        <v>199.96719400000001</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>22.93951556512042</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5">
+        <v>124.71122699999999</v>
+      </c>
+      <c r="C5">
+        <v>250.02114900000001</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>22.388447068195301</v>
+      </c>
+      <c r="G5">
+        <v>-125.798096</v>
+      </c>
+      <c r="H5">
+        <v>249.98483300000001</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>22.288283649503914</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6">
+        <v>184.849075</v>
+      </c>
+      <c r="C6">
+        <v>299.999481</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>22.065402938751795</v>
+      </c>
+      <c r="G6">
+        <v>-186.32605000000001</v>
+      </c>
+      <c r="H6">
+        <v>299.98184199999997</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>21.976482363802589</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7">
+        <v>255.16932700000001</v>
+      </c>
+      <c r="C7">
+        <v>350.01971400000002</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>21.911810911877357</v>
+      </c>
+      <c r="G7">
+        <v>-257.57199100000003</v>
+      </c>
+      <c r="H7">
+        <v>349.99243200000001</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>21.807673483780214</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8">
+        <v>340.52365099999997</v>
+      </c>
+      <c r="C8">
+        <v>399.98831200000001</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>21.67572639813822</v>
+      </c>
+      <c r="G8">
+        <v>-342.31967200000003</v>
+      </c>
+      <c r="H8">
+        <v>399.99588</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>21.619198515486314</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9">
+        <v>433.67776500000002</v>
+      </c>
+      <c r="C9">
+        <v>449.99563599999999</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>21.608505152641563</v>
+      </c>
+      <c r="G9">
+        <v>-430.79803500000003</v>
+      </c>
+      <c r="H9">
+        <v>449.98916600000001</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>21.680295681494094</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10">
+        <v>535.57232699999997</v>
+      </c>
+      <c r="C10">
+        <v>500.00839200000001</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>21.60569440235891</v>
+      </c>
+      <c r="G10">
+        <v>-523.07440199999996</v>
+      </c>
+      <c r="H10">
+        <v>500.02648900000003</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>21.863076689669914</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11">
+        <v>640.40478499999995</v>
+      </c>
+      <c r="C11">
+        <v>550.01641800000004</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>21.734435717945548</v>
+      </c>
+      <c r="G11">
+        <v>-609.77770999999996</v>
+      </c>
+      <c r="H11">
+        <v>549.97100799999998</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>22.271733617313075</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12">
+        <v>746.17364499999996</v>
+      </c>
+      <c r="C12">
+        <v>600.04235800000004</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>21.966555206844763</v>
+      </c>
+      <c r="G12">
+        <v>-703.29187000000002</v>
+      </c>
+      <c r="H12">
+        <v>600.00988800000005</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>22.625105291690929</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13">
+        <v>865.81976299999997</v>
+      </c>
+      <c r="C13">
+        <v>650.04016100000001</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>22.091562904788024</v>
+      </c>
+      <c r="G13">
+        <v>-812.21276899999998</v>
+      </c>
+      <c r="H13">
+        <v>649.94152799999995</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>22.805488566866572</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14">
+        <v>990.47332800000004</v>
+      </c>
+      <c r="C14">
+        <v>699.96813999999995</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>22.241131630204393</v>
+      </c>
+      <c r="G14">
+        <v>-932.91455099999996</v>
+      </c>
+      <c r="H14">
+        <v>699.96948199999997</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>22.917021496173327</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15">
+        <v>1110.160889</v>
+      </c>
+      <c r="C15">
+        <v>741.25158699999997</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>22.247062487523003</v>
+      </c>
+      <c r="G15">
+        <v>-1022.647217</v>
+      </c>
+      <c r="H15">
+        <v>735.559753</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>23.001440641266587</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5">
+        <f>(C16/D15)^2</f>
+        <v>1293.1074822946005</v>
+      </c>
+      <c r="C16">
+        <v>800</v>
+      </c>
+      <c r="G16" s="5">
+        <f>(H16/I15)^2</f>
+        <v>1209.6783227105309</v>
+      </c>
+      <c r="H16">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17">
+        <v>1500</v>
+      </c>
+      <c r="C17" s="5">
+        <f>SQRT(B17)*D15</f>
+        <v>861.62502516212339</v>
+      </c>
+      <c r="G17">
+        <v>1500</v>
+      </c>
+      <c r="H17" s="5">
+        <f>SQRT(G17)*I15</f>
+        <v>890.84196542403936</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>19.283072000000001</v>
+      </c>
+      <c r="C18">
+        <v>99.910774000000004</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>22.752242714436239</v>
+      </c>
+      <c r="G18">
+        <v>-19.639939999999999</v>
+      </c>
+      <c r="H18">
+        <v>99.917809000000005</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="1"/>
+        <v>22.54617241999075</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19">
+        <v>46.811230000000002</v>
+      </c>
+      <c r="C19">
+        <v>149.96942100000001</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>21.919350860483476</v>
+      </c>
+      <c r="G19">
+        <v>-48.108775999999999</v>
+      </c>
+      <c r="H19">
+        <v>149.95742799999999</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="1"/>
+        <v>21.620006949175721</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20">
+        <v>88.058623999999995</v>
+      </c>
+      <c r="C20">
+        <v>199.993515</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>21.312282586557174</v>
+      </c>
+      <c r="G20">
+        <v>-91.581160999999994</v>
+      </c>
+      <c r="H20">
+        <v>199.974625</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="1"/>
+        <v>20.896416630903353</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21">
+        <v>144.04530299999999</v>
+      </c>
+      <c r="C21">
+        <v>249.98709099999999</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>20.828981398820652</v>
+      </c>
+      <c r="G21">
+        <v>-150.508331</v>
+      </c>
+      <c r="H21">
+        <v>250.00692699999999</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="1"/>
+        <v>20.378479272903764</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22">
+        <v>210.70001199999999</v>
+      </c>
+      <c r="C22">
+        <v>300.00109900000001</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>20.667624645170427</v>
+      </c>
+      <c r="G22">
+        <v>-222.34944200000001</v>
+      </c>
+      <c r="H22">
+        <v>299.97763099999997</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="1"/>
+        <v>20.117353581474237</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23">
+        <v>288.097443</v>
+      </c>
+      <c r="C23">
+        <v>350.01043700000002</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>20.621074579908008</v>
+      </c>
+      <c r="G23">
+        <v>-302.56393400000002</v>
+      </c>
+      <c r="H23">
+        <v>350.017944</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="1"/>
+        <v>20.122490465001764</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24">
+        <v>379.69879200000003</v>
+      </c>
+      <c r="C24">
+        <v>399.973389</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>20.526338667109215</v>
+      </c>
+      <c r="G24">
+        <v>-393.34402499999999</v>
+      </c>
+      <c r="H24">
+        <v>399.96981799999998</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="1"/>
+        <v>20.166983438677335</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25">
+        <v>476.69454999999999</v>
+      </c>
+      <c r="C25">
+        <v>449.95510899999999</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>20.608628664856809</v>
+      </c>
+      <c r="G25">
+        <v>-487.295074</v>
+      </c>
+      <c r="H25">
+        <v>449.96224999999998</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="1"/>
+        <v>20.383561554026912</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26">
+        <v>583.19665499999996</v>
+      </c>
+      <c r="C26">
+        <v>499.95343000000003</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>20.702464093988375</v>
+      </c>
+      <c r="G26">
+        <v>-580.942139</v>
+      </c>
+      <c r="H26">
+        <v>499.98745700000001</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="1"/>
+        <v>20.744007929291602</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27">
+        <v>689.53839100000005</v>
+      </c>
+      <c r="C27">
+        <v>549.94665499999996</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>20.943117980137021</v>
+      </c>
+      <c r="G27">
+        <v>-671.66595500000005</v>
+      </c>
+      <c r="H27">
+        <v>549.98614499999996</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="1"/>
+        <v>21.221451301022018</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28">
+        <v>799.87683100000004</v>
+      </c>
+      <c r="C28">
+        <v>599.92315699999995</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>21.212119610358794</v>
+      </c>
+      <c r="G28">
+        <v>-773.79864499999996</v>
+      </c>
+      <c r="H28">
+        <v>599.97851600000001</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="1"/>
+        <v>21.568588115513794</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29">
+        <v>935.31787099999997</v>
+      </c>
+      <c r="C29">
+        <v>649.99511700000005</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>21.253500905725936</v>
+      </c>
+      <c r="G29">
+        <v>-889.32952899999998</v>
+      </c>
+      <c r="H29">
+        <v>649.93811000000005</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="1"/>
+        <v>21.794185687982054</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30">
+        <v>1080.346436</v>
+      </c>
+      <c r="C30">
+        <v>699.94409199999996</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>21.295205253474176</v>
+      </c>
+      <c r="G30">
+        <v>-1006.642456</v>
+      </c>
+      <c r="H30">
+        <v>700.04058799999996</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="1"/>
+        <v>22.064068610948304</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31">
+        <v>1198.867798</v>
+      </c>
+      <c r="C31">
+        <v>737.628784</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>21.303561194627825</v>
+      </c>
+      <c r="G31">
+        <v>-1117.794189</v>
+      </c>
+      <c r="H31">
+        <v>740.42425500000002</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="1"/>
+        <v>22.146225272412469</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="5">
+        <f>(C32/D31)^2</f>
+        <v>1410.1832696249085</v>
+      </c>
+      <c r="C32">
+        <v>800</v>
+      </c>
+      <c r="G32" s="5">
+        <f>(H32/I31)^2</f>
+        <v>1304.9099644126347</v>
+      </c>
+      <c r="H32">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33">
+        <v>1500</v>
+      </c>
+      <c r="C33" s="5">
+        <f>SQRT(B33)*D31</f>
+        <v>825.08337721704152</v>
+      </c>
+      <c r="G33">
+        <v>1500</v>
+      </c>
+      <c r="H33" s="5">
+        <f>SQRT(G33)*I31</f>
+        <v>857.71961661411308</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34">
+        <v>21.105705</v>
+      </c>
+      <c r="C34">
+        <v>99.939132999999998</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>21.753825761166901</v>
+      </c>
+      <c r="G34">
+        <v>-21.211158999999999</v>
+      </c>
+      <c r="H34">
+        <v>99.917670999999999</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="1"/>
+        <v>21.695022391175769</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35">
+        <v>51.566422000000003</v>
+      </c>
+      <c r="C35">
+        <v>149.95313999999999</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>20.881998732567329</v>
+      </c>
+      <c r="G35">
+        <v>-51.625725000000003</v>
+      </c>
+      <c r="H35">
+        <v>149.95304899999999</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="1"/>
+        <v>20.869988938080812</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36">
+        <v>97.095946999999995</v>
+      </c>
+      <c r="C36">
+        <v>199.978409</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>20.294696357683719</v>
+      </c>
+      <c r="G36">
+        <v>-96.309096999999994</v>
+      </c>
+      <c r="H36">
+        <v>199.98791499999999</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="1"/>
+        <v>20.37840068417518</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37">
+        <v>159.20289600000001</v>
+      </c>
+      <c r="C37">
+        <v>250.01071200000001</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>19.814500791183068</v>
+      </c>
+      <c r="G37">
+        <v>-157.846451</v>
+      </c>
+      <c r="H37">
+        <v>250.00117499999999</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="1"/>
+        <v>19.898696999222921</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38">
+        <v>232.02758800000001</v>
+      </c>
+      <c r="C38">
+        <v>299.99591099999998</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>19.694525532398398</v>
+      </c>
+      <c r="G38">
+        <v>-234.38755800000001</v>
+      </c>
+      <c r="H38">
+        <v>299.983856</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="1"/>
+        <v>19.594338487466899</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="B39">
+        <v>318.18722500000001</v>
+      </c>
+      <c r="C39">
+        <v>349.999146</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>19.621202284655936</v>
+      </c>
+      <c r="G39">
+        <v>-324.45376599999997</v>
+      </c>
+      <c r="H39">
+        <v>349.97421300000002</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="1"/>
+        <v>19.429411028683418</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
+      <c r="B40">
+        <v>425.59802200000001</v>
+      </c>
+      <c r="C40">
+        <v>399.98962399999999</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>19.38871045832477</v>
+      </c>
+      <c r="G40">
+        <v>-436.86163299999998</v>
+      </c>
+      <c r="H40">
+        <v>399.97799700000002</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="1"/>
+        <v>19.136572222663847</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+      <c r="B41">
+        <v>547.94116199999996</v>
+      </c>
+      <c r="C41">
+        <v>450.00402800000001</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>19.224251434570647</v>
+      </c>
+      <c r="G41">
+        <v>-563.58831799999996</v>
+      </c>
+      <c r="H41">
+        <v>450.00018299999999</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="1"/>
+        <v>18.955345255029069</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+      <c r="B42">
+        <v>671.26470900000004</v>
+      </c>
+      <c r="C42">
+        <v>499.95306399999998</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>19.296668082599375</v>
+      </c>
+      <c r="G42">
+        <v>-692.10540800000001</v>
+      </c>
+      <c r="H42">
+        <v>499.94799799999998</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="1"/>
+        <v>19.003723908667027</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+      <c r="B43">
+        <v>787.59533699999997</v>
+      </c>
+      <c r="C43">
+        <v>549.95721400000002</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>19.596446903284658</v>
+      </c>
+      <c r="G43">
+        <v>-832.65972899999997</v>
+      </c>
+      <c r="H43">
+        <v>549.99475099999995</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="1"/>
+        <v>19.060081982190976</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+      <c r="B44">
+        <v>926.66894500000001</v>
+      </c>
+      <c r="C44">
+        <v>600.02642800000001</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="0"/>
+        <v>19.710973529025317</v>
+      </c>
+      <c r="G44">
+        <v>-953.94238299999995</v>
+      </c>
+      <c r="H44">
+        <v>599.96991000000003</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="1"/>
+        <v>19.425329654405541</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
+      <c r="B45">
+        <v>1070.2601320000001</v>
+      </c>
+      <c r="C45">
+        <v>649.94439699999998</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="0"/>
+        <v>19.866965161342904</v>
+      </c>
+      <c r="G45">
+        <v>-1073.3360600000001</v>
+      </c>
+      <c r="H45">
+        <v>649.98718299999996</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="1"/>
+        <v>19.839783690760285</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="4"/>
+      <c r="B46">
+        <v>1216.480591</v>
+      </c>
+      <c r="C46">
+        <v>699.91967799999998</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="0"/>
+        <v>20.067608125340776</v>
+      </c>
+      <c r="G46">
+        <v>-1213.7883300000001</v>
+      </c>
+      <c r="H46">
+        <v>699.99188200000003</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="1"/>
+        <v>20.091923901387474</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="4"/>
+      <c r="B47">
+        <v>1347.8980710000001</v>
+      </c>
+      <c r="C47">
+        <v>740.53582800000004</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="0"/>
+        <v>20.170541113533538</v>
+      </c>
+      <c r="G47">
+        <v>-1322.7489009999999</v>
+      </c>
+      <c r="H47">
+        <v>738.75213599999995</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="1"/>
+        <v>20.312344092557034</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="4"/>
+      <c r="B48" s="5">
+        <f>(C48/D47)^2</f>
+        <v>1573.0585069064982</v>
+      </c>
+      <c r="C48">
+        <v>800</v>
+      </c>
+      <c r="G48" s="5">
+        <f>(H48/I47)^2</f>
+        <v>1551.1717407643318</v>
+      </c>
+      <c r="H48">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="4"/>
+      <c r="B49">
+        <v>1500</v>
+      </c>
+      <c r="C49" s="5">
+        <f>SQRT(B49)*D47</f>
+        <v>781.20169816707403</v>
+      </c>
+      <c r="G49">
+        <v>1500</v>
+      </c>
+      <c r="H49" s="5">
+        <f>SQRT(G49)*I47</f>
+        <v>786.6937039290799</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B50">
+        <v>23.451715</v>
+      </c>
+      <c r="C50">
+        <v>99.943672000000007</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="0"/>
+        <v>20.638018518889393</v>
+      </c>
+      <c r="G50">
+        <v>-24.057729999999999</v>
+      </c>
+      <c r="H50">
+        <v>99.951897000000002</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="1"/>
+        <v>20.378101347963337</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="4"/>
+      <c r="B51">
+        <v>58.032204</v>
+      </c>
+      <c r="C51">
+        <v>149.95069899999999</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="0"/>
+        <v>19.684027455579994</v>
+      </c>
+      <c r="G51">
+        <v>-59.562485000000002</v>
+      </c>
+      <c r="H51">
+        <v>149.95112599999999</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="1"/>
+        <v>19.42957616167579</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="4"/>
+      <c r="B52">
+        <v>108.219444</v>
+      </c>
+      <c r="C52">
+        <v>199.98644999999999</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="0"/>
+        <v>19.22418433134748</v>
+      </c>
+      <c r="G52">
+        <v>-110.218132</v>
+      </c>
+      <c r="H52">
+        <v>200.018036</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="1"/>
+        <v>19.052090484809803</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="4"/>
+      <c r="B53">
+        <v>175.90983600000001</v>
+      </c>
+      <c r="C53">
+        <v>250.011459</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="0"/>
+        <v>18.850151832838645</v>
+      </c>
+      <c r="G53">
+        <v>-179.80171200000001</v>
+      </c>
+      <c r="H53">
+        <v>249.99273700000001</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="1"/>
+        <v>18.643630201572922</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="4"/>
+      <c r="B54">
+        <v>255.86073300000001</v>
+      </c>
+      <c r="C54">
+        <v>300.01126099999999</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="0"/>
+        <v>18.755806195716005</v>
+      </c>
+      <c r="G54">
+        <v>-265.77435300000002</v>
+      </c>
+      <c r="H54">
+        <v>300.00347900000003</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="1"/>
+        <v>18.402200417358028</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="4"/>
+      <c r="B55">
+        <v>351.95684799999998</v>
+      </c>
+      <c r="C55">
+        <v>350.009186</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="0"/>
+        <v>18.656695902266659</v>
+      </c>
+      <c r="G55">
+        <v>-368.292755</v>
+      </c>
+      <c r="H55">
+        <v>349.989868</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="1"/>
+        <v>18.237230374180527</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="4"/>
+      <c r="B56">
+        <v>474.037689</v>
+      </c>
+      <c r="C56">
+        <v>400.02105699999998</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="0"/>
+        <v>18.372845244664152</v>
+      </c>
+      <c r="G56">
+        <v>-502.07553100000001</v>
+      </c>
+      <c r="H56">
+        <v>399.97467</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="1"/>
+        <v>17.850400337339799</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="4"/>
+      <c r="B57">
+        <v>614.31774900000005</v>
+      </c>
+      <c r="C57">
+        <v>449.96688799999998</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="0"/>
+        <v>18.154488809015305</v>
+      </c>
+      <c r="G57">
+        <v>-640.64599599999997</v>
+      </c>
+      <c r="H57">
+        <v>450.00006100000002</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="1"/>
+        <v>17.778843808058301</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="4"/>
+      <c r="B58">
+        <v>755.34704599999998</v>
+      </c>
+      <c r="C58">
+        <v>499.98373400000003</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="0"/>
+        <v>18.19209051049549</v>
+      </c>
+      <c r="G58">
+        <v>-784.64880400000004</v>
+      </c>
+      <c r="H58">
+        <v>499.98089599999997</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="1"/>
+        <v>17.849076542500825</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="4"/>
+      <c r="B59">
+        <v>905.06658900000002</v>
+      </c>
+      <c r="C59">
+        <v>549.96313499999997</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="0"/>
+        <v>18.28072066083266</v>
+      </c>
+      <c r="G59">
+        <v>-919.87219200000004</v>
+      </c>
+      <c r="H59">
+        <v>549.96069299999999</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="1"/>
+        <v>18.132926677572563</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="4"/>
+      <c r="B60">
+        <v>1058.365356</v>
+      </c>
+      <c r="C60">
+        <v>599.96850600000005</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="0"/>
+        <v>18.442111607673635</v>
+      </c>
+      <c r="G60">
+        <v>-1047.5073239999999</v>
+      </c>
+      <c r="H60">
+        <v>599.99609399999997</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="1"/>
+        <v>18.538299278268827</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="4"/>
+      <c r="B61">
+        <v>1214.3276370000001</v>
+      </c>
+      <c r="C61">
+        <v>649.95361300000002</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="0"/>
+        <v>18.651528260961186</v>
+      </c>
+      <c r="G61">
+        <v>-1190.2849120000001</v>
+      </c>
+      <c r="H61">
+        <v>649.97656300000006</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="1"/>
+        <v>18.839624080179423</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="4"/>
+      <c r="B62">
+        <v>1385.984741</v>
+      </c>
+      <c r="C62">
+        <v>700.00073199999997</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="0"/>
+        <v>18.802658992428388</v>
+      </c>
+      <c r="G62">
+        <v>-1323.9586179999999</v>
+      </c>
+      <c r="H62">
+        <v>700.01849400000003</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="1"/>
+        <v>19.238548764143637</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="4"/>
+      <c r="B63">
+        <v>1539.2631839999999</v>
+      </c>
+      <c r="C63">
+        <v>738.28991699999995</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="0"/>
+        <v>18.81787139549553</v>
+      </c>
+      <c r="G63">
+        <v>-1457.650879</v>
+      </c>
+      <c r="H63">
+        <v>739.64782700000001</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="1"/>
+        <v>19.37306012225978</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="4"/>
+      <c r="B64" s="5">
+        <f>(C64/D63)^2</f>
+        <v>1807.3363426661303</v>
+      </c>
+      <c r="C64">
+        <v>800</v>
+      </c>
+      <c r="G64" s="5">
+        <f>(H64/I63)^2</f>
+        <v>1705.2321866961411</v>
+      </c>
+      <c r="H64">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="4"/>
+      <c r="B65">
+        <v>1500</v>
+      </c>
+      <c r="C65" s="5">
+        <f>SQRT(B65)*D63</f>
+        <v>728.81302525827107</v>
+      </c>
+      <c r="G65">
+        <v>1500</v>
+      </c>
+      <c r="H65" s="5">
+        <f>SQRT(G65)*I63</f>
+        <v>750.31539218587147</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B67">
+        <v>15.117457999999999</v>
+      </c>
+      <c r="C67">
+        <v>99.872748999999999</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="0"/>
+        <v>25.686658900759291</v>
+      </c>
+      <c r="G67">
+        <v>-15.656874</v>
+      </c>
+      <c r="H67">
+        <v>99.961539999999999</v>
+      </c>
+      <c r="I67">
+        <f t="shared" si="1"/>
+        <v>25.26273752903553</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="4"/>
+      <c r="B68">
+        <v>37.185702999999997</v>
+      </c>
+      <c r="C68">
+        <v>149.964066</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="0"/>
+        <v>24.592303439518961</v>
+      </c>
+      <c r="G68">
+        <v>-38.406975000000003</v>
+      </c>
+      <c r="H68">
+        <v>149.951324</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="1"/>
+        <v>24.196093461083215</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="4"/>
+      <c r="B69">
+        <v>70.753105000000005</v>
+      </c>
+      <c r="C69">
+        <v>199.98182700000001</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="0"/>
+        <v>23.774849688863455</v>
+      </c>
+      <c r="G69">
+        <v>-73.469193000000004</v>
+      </c>
+      <c r="H69">
+        <v>199.98281900000001</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="1"/>
+        <v>23.331359807126972</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="4"/>
+      <c r="B70">
+        <v>115.383652</v>
+      </c>
+      <c r="C70">
+        <v>250.030396</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="0"/>
+        <v>23.276660292384705</v>
+      </c>
+      <c r="G70">
+        <v>-121.436409</v>
+      </c>
+      <c r="H70">
+        <v>250.00060999999999</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="1"/>
+        <v>22.686453547501518</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="4"/>
+      <c r="B71">
+        <v>170.35754399999999</v>
+      </c>
+      <c r="C71">
+        <v>300.02105699999998</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="0"/>
+        <v>22.986404856804782</v>
+      </c>
+      <c r="G71">
+        <v>-182.24809300000001</v>
+      </c>
+      <c r="H71">
+        <v>299.993042</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="1"/>
+        <v>22.221823075795502</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="4"/>
+      <c r="B72">
+        <v>233.98492400000001</v>
+      </c>
+      <c r="C72">
+        <v>349.980591</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="0"/>
+        <v>22.879684010680627</v>
+      </c>
+      <c r="G72">
+        <v>-251.839279</v>
+      </c>
+      <c r="H72">
+        <v>349.982483</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="1"/>
+        <v>22.053858020665004</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="4"/>
+      <c r="B73">
+        <v>310.97219799999999</v>
+      </c>
+      <c r="C73">
+        <v>399.99908399999998</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="0"/>
+        <v>22.682881039742714</v>
+      </c>
+      <c r="G73">
+        <v>-331.99468999999999</v>
+      </c>
+      <c r="H73">
+        <v>399.990387</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="1"/>
+        <v>21.952499970602162</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="4"/>
+      <c r="B74">
+        <v>391.59802200000001</v>
+      </c>
+      <c r="C74">
+        <v>450.00427200000001</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="0"/>
+        <v>22.740310583783661</v>
+      </c>
+      <c r="G74">
+        <v>-413.34942599999999</v>
+      </c>
+      <c r="H74">
+        <v>449.995361</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="1"/>
+        <v>22.133462913003719</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="4"/>
+      <c r="B75">
+        <v>475.44335899999999</v>
+      </c>
+      <c r="C75">
+        <v>499.95010400000001</v>
+      </c>
+      <c r="D75">
+        <f t="shared" ref="D75:D128" si="2">C75/SQRT(B75)</f>
+        <v>22.928585871143497</v>
+      </c>
+      <c r="G75">
+        <v>-493.70898399999999</v>
+      </c>
+      <c r="H75">
+        <v>499.99069200000002</v>
+      </c>
+      <c r="I75">
+        <f t="shared" ref="I75:I128" si="3">H75/SQRT(ABS(G75))</f>
+        <v>22.502273781418253</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="4"/>
+      <c r="B76">
+        <v>554.38079800000003</v>
+      </c>
+      <c r="C76">
+        <v>550.00329599999998</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="2"/>
+        <v>23.359374127617365</v>
+      </c>
+      <c r="G76">
+        <v>-577.341858</v>
+      </c>
+      <c r="H76">
+        <v>549.96392800000001</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="3"/>
+        <v>22.888518462702415</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="4"/>
+      <c r="B77">
+        <v>653.49078399999996</v>
+      </c>
+      <c r="C77">
+        <v>599.98693800000001</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="2"/>
+        <v>23.47048489277412</v>
+      </c>
+      <c r="G77">
+        <v>-665.66839600000003</v>
+      </c>
+      <c r="H77">
+        <v>599.94805899999994</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="3"/>
+        <v>23.253304752268612</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="4"/>
+      <c r="B78">
+        <v>760.60223399999995</v>
+      </c>
+      <c r="C78">
+        <v>650.00317399999994</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="2"/>
+        <v>23.568757014244682</v>
+      </c>
+      <c r="G78">
+        <v>-765.629639</v>
+      </c>
+      <c r="H78">
+        <v>649.94915800000001</v>
+      </c>
+      <c r="I78">
+        <f t="shared" si="3"/>
+        <v>23.489296867669051</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="4"/>
+      <c r="B79">
+        <v>883.14001499999995</v>
+      </c>
+      <c r="C79">
+        <v>699.934753</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="2"/>
+        <v>23.552812568472042</v>
+      </c>
+      <c r="G79">
+        <v>-881.86035200000003</v>
+      </c>
+      <c r="H79">
+        <v>700.05346699999996</v>
+      </c>
+      <c r="I79">
+        <f t="shared" si="3"/>
+        <v>23.573892680741139</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="4"/>
+      <c r="B80">
+        <v>1002.684814</v>
+      </c>
+      <c r="C80">
+        <v>741.13751200000002</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="2"/>
+        <v>23.405427424180928</v>
+      </c>
+      <c r="G80">
+        <v>-984.61035200000003</v>
+      </c>
+      <c r="H80">
+        <v>739.95977800000003</v>
+      </c>
+      <c r="I80">
+        <f t="shared" si="3"/>
+        <v>23.581743686769375</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="4"/>
+      <c r="B81" s="5">
+        <f>(C81/D80)^2</f>
+        <v>1168.2796744032657</v>
+      </c>
+      <c r="C81">
+        <v>800</v>
+      </c>
+      <c r="G81" s="5">
+        <f>(H81/I80)^2</f>
+        <v>1150.8749695905472</v>
+      </c>
+      <c r="H81">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="4"/>
+      <c r="B82">
+        <v>1500</v>
+      </c>
+      <c r="C82" s="5">
+        <f>SQRT(B82)*D80</f>
+        <v>906.48830624719096</v>
+      </c>
+      <c r="G82">
+        <v>1500</v>
+      </c>
+      <c r="H82" s="5">
+        <f>SQRT(G82)*I80</f>
+        <v>913.31700573389685</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B83">
+        <v>17.629242000000001</v>
+      </c>
+      <c r="C83">
+        <v>99.925681999999995</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="2"/>
+        <v>23.799087257045752</v>
+      </c>
+      <c r="G83">
+        <v>-17.62208</v>
+      </c>
+      <c r="H83">
+        <v>99.887473999999997</v>
+      </c>
+      <c r="I83">
+        <f t="shared" si="3"/>
+        <v>23.794821234252659</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="4"/>
+      <c r="B84">
+        <v>43.492446999999999</v>
+      </c>
+      <c r="C84">
+        <v>149.965439</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="2"/>
+        <v>22.739675437526355</v>
+      </c>
+      <c r="G84">
+        <v>-43.005634000000001</v>
+      </c>
+      <c r="H84">
+        <v>149.94721999999999</v>
+      </c>
+      <c r="I84">
+        <f t="shared" si="3"/>
+        <v>22.86523878539623</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="4"/>
+      <c r="B85">
+        <v>82.151488999999998</v>
+      </c>
+      <c r="C85">
+        <v>199.97560100000001</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="2"/>
+        <v>22.063240089330087</v>
+      </c>
+      <c r="G85">
+        <v>-82.080246000000002</v>
+      </c>
+      <c r="H85">
+        <v>199.992538</v>
+      </c>
+      <c r="I85">
+        <f t="shared" si="3"/>
+        <v>22.074682566320558</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="4"/>
+      <c r="B86">
+        <v>134.52560399999999</v>
+      </c>
+      <c r="C86">
+        <v>250.00105300000001</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="2"/>
+        <v>21.55456996125417</v>
+      </c>
+      <c r="G86">
+        <v>-135.50787399999999</v>
+      </c>
+      <c r="H86">
+        <v>249.97035199999999</v>
+      </c>
+      <c r="I86">
+        <f t="shared" si="3"/>
+        <v>21.473668082199762</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" s="4"/>
+      <c r="B87">
+        <v>199.10575900000001</v>
+      </c>
+      <c r="C87">
+        <v>299.99224900000002</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="2"/>
+        <v>21.260238046032658</v>
+      </c>
+      <c r="G87">
+        <v>-202.73382599999999</v>
+      </c>
+      <c r="H87">
+        <v>300.00784299999998</v>
+      </c>
+      <c r="I87">
+        <f t="shared" si="3"/>
+        <v>21.070240862760802</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" s="4"/>
+      <c r="B88">
+        <v>275.14389</v>
+      </c>
+      <c r="C88">
+        <v>349.982056</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="2"/>
+        <v>21.099192845928357</v>
+      </c>
+      <c r="G88">
+        <v>-280.153503</v>
+      </c>
+      <c r="H88">
+        <v>350.00845299999997</v>
+      </c>
+      <c r="I88">
+        <f t="shared" si="3"/>
+        <v>20.91127457036983</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" s="4"/>
+      <c r="B89">
+        <v>369.05261200000001</v>
+      </c>
+      <c r="C89">
+        <v>399.99325599999997</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="2"/>
+        <v>20.821332873847048</v>
+      </c>
+      <c r="G89">
+        <v>-370.598206</v>
+      </c>
+      <c r="H89">
+        <v>399.96383700000001</v>
+      </c>
+      <c r="I89">
+        <f t="shared" si="3"/>
+        <v>20.776341241125326</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="4"/>
+      <c r="B90">
+        <v>467.65405299999998</v>
+      </c>
+      <c r="C90">
+        <v>449.97674599999999</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="2"/>
+        <v>20.807874485206607</v>
+      </c>
+      <c r="G90">
+        <v>-467.89382899999998</v>
+      </c>
+      <c r="H90">
+        <v>449.95465100000001</v>
+      </c>
+      <c r="I90">
+        <f t="shared" si="3"/>
+        <v>20.801520762072457</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" s="4"/>
+      <c r="B91">
+        <v>565.69341999999995</v>
+      </c>
+      <c r="C91">
+        <v>499.98989899999998</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="2"/>
+        <v>21.021837132258412</v>
+      </c>
+      <c r="G91">
+        <v>-566.91803000000004</v>
+      </c>
+      <c r="H91">
+        <v>500.007385</v>
+      </c>
+      <c r="I91">
+        <f t="shared" si="3"/>
+        <v>20.999854426444628</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" s="4"/>
+      <c r="B92">
+        <v>654.68450900000005</v>
+      </c>
+      <c r="C92">
+        <v>549.94628899999998</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="2"/>
+        <v>21.493356558822779</v>
+      </c>
+      <c r="G92">
+        <v>-662.362122</v>
+      </c>
+      <c r="H92">
+        <v>549.98101799999995</v>
+      </c>
+      <c r="I92">
+        <f t="shared" si="3"/>
+        <v>21.369775324268939</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" s="4"/>
+      <c r="B93">
+        <v>758.56658900000002</v>
+      </c>
+      <c r="C93">
+        <v>599.97442599999999</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="2"/>
+        <v>21.783912492703337</v>
+      </c>
+      <c r="G93">
+        <v>-753.28698699999995</v>
+      </c>
+      <c r="H93">
+        <v>599.940247</v>
+      </c>
+      <c r="I93">
+        <f t="shared" si="3"/>
+        <v>21.858872909161143</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" s="4"/>
+      <c r="B94">
+        <v>882.47820999999999</v>
+      </c>
+      <c r="C94">
+        <v>649.964294</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="2"/>
+        <v>21.879505580537884</v>
+      </c>
+      <c r="G94">
+        <v>-864.12908900000002</v>
+      </c>
+      <c r="H94">
+        <v>650.02691700000003</v>
+      </c>
+      <c r="I94">
+        <f t="shared" si="3"/>
+        <v>22.112712949073767</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" s="4"/>
+      <c r="B95">
+        <v>1019.559509</v>
+      </c>
+      <c r="C95">
+        <v>699.99383499999999</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="2"/>
+        <v>21.922391300839344</v>
+      </c>
+      <c r="G95">
+        <v>-975.193848</v>
+      </c>
+      <c r="H95">
+        <v>699.99890100000005</v>
+      </c>
+      <c r="I95">
+        <f t="shared" si="3"/>
+        <v>22.415678121971762</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" s="4"/>
+      <c r="B96">
+        <v>1137.410889</v>
+      </c>
+      <c r="C96">
+        <v>738.60351600000001</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="2"/>
+        <v>21.900431910238641</v>
+      </c>
+      <c r="G96">
+        <v>-1069.3549800000001</v>
+      </c>
+      <c r="H96">
+        <v>737.71051</v>
+      </c>
+      <c r="I96">
+        <f t="shared" si="3"/>
+        <v>22.559268989222215</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" s="4"/>
+      <c r="B97" s="5">
+        <f>(C97/D96)^2</f>
+        <v>1334.36491457232</v>
+      </c>
+      <c r="C97">
+        <v>800</v>
+      </c>
+      <c r="G97" s="5">
+        <f>(H97/I96)^2</f>
+        <v>1257.5635142472813</v>
+      </c>
+      <c r="H97">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" s="4"/>
+      <c r="B98">
+        <v>1500</v>
+      </c>
+      <c r="C98" s="5">
+        <f>SQRT(B98)*D96</f>
+        <v>848.20008063103739</v>
+      </c>
+      <c r="G98">
+        <v>1500</v>
+      </c>
+      <c r="H98" s="5">
+        <f>SQRT(G98)*I96</f>
+        <v>873.71673097871064</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B99">
+        <v>19.871701999999999</v>
+      </c>
+      <c r="C99">
+        <v>99.912903</v>
+      </c>
+      <c r="D99">
+        <f t="shared" si="2"/>
+        <v>22.413209203455992</v>
+      </c>
+      <c r="G99">
+        <v>-20.057161000000001</v>
+      </c>
+      <c r="H99">
+        <v>99.890686000000002</v>
+      </c>
+      <c r="I99">
+        <f t="shared" si="3"/>
+        <v>22.304385638366952</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" s="4"/>
+      <c r="B100">
+        <v>48.985160999999998</v>
+      </c>
+      <c r="C100">
+        <v>149.96099899999999</v>
+      </c>
+      <c r="D100">
+        <f t="shared" si="2"/>
+        <v>21.426244429755332</v>
+      </c>
+      <c r="G100">
+        <v>-49.805835999999999</v>
+      </c>
+      <c r="H100">
+        <v>149.97302199999999</v>
+      </c>
+      <c r="I100">
+        <f t="shared" si="3"/>
+        <v>21.250689494150457</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" s="4"/>
+      <c r="B101">
+        <v>93.013664000000006</v>
+      </c>
+      <c r="C101">
+        <v>199.99934400000001</v>
+      </c>
+      <c r="D101">
+        <f t="shared" si="2"/>
+        <v>20.73744250494757</v>
+      </c>
+      <c r="G101">
+        <v>-94.014458000000005</v>
+      </c>
+      <c r="H101">
+        <v>199.99423200000001</v>
+      </c>
+      <c r="I101">
+        <f t="shared" si="3"/>
+        <v>20.626243816470129</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" s="4"/>
+      <c r="B102">
+        <v>153.241333</v>
+      </c>
+      <c r="C102">
+        <v>250.01713599999999</v>
+      </c>
+      <c r="D102">
+        <f t="shared" si="2"/>
+        <v>20.196765144652439</v>
+      </c>
+      <c r="G102">
+        <v>-154.897141</v>
+      </c>
+      <c r="H102">
+        <v>249.98440600000001</v>
+      </c>
+      <c r="I102">
+        <f t="shared" si="3"/>
+        <v>20.085896353573442</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" s="4"/>
+      <c r="B103">
+        <v>223.03173799999999</v>
+      </c>
+      <c r="C103">
+        <v>300.00521900000001</v>
+      </c>
+      <c r="D103">
+        <f t="shared" si="2"/>
+        <v>20.088405926630124</v>
+      </c>
+      <c r="G103">
+        <v>-232.97100800000001</v>
+      </c>
+      <c r="H103">
+        <v>300.01052900000002</v>
+      </c>
+      <c r="I103">
+        <f t="shared" si="3"/>
+        <v>19.655566141212638</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" s="4"/>
+      <c r="B104">
+        <v>306.00012199999998</v>
+      </c>
+      <c r="C104">
+        <v>350.007813</v>
+      </c>
+      <c r="D104">
+        <f t="shared" si="2"/>
+        <v>20.008610917463674</v>
+      </c>
+      <c r="G104">
+        <v>-322.00692700000002</v>
+      </c>
+      <c r="H104">
+        <v>350.00060999999999</v>
+      </c>
+      <c r="I104">
+        <f t="shared" si="3"/>
+        <v>19.504561640052625</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" s="4"/>
+      <c r="B105">
+        <v>408.70697000000001</v>
+      </c>
+      <c r="C105">
+        <v>399.98867799999999</v>
+      </c>
+      <c r="D105">
+        <f t="shared" si="2"/>
+        <v>19.785256110977137</v>
+      </c>
+      <c r="G105">
+        <v>-426.73556500000001</v>
+      </c>
+      <c r="H105">
+        <v>399.970551</v>
+      </c>
+      <c r="I105">
+        <f t="shared" si="3"/>
+        <v>19.361927813970368</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" s="4"/>
+      <c r="B106">
+        <v>525.58898899999997</v>
+      </c>
+      <c r="C106">
+        <v>449.95541400000002</v>
+      </c>
+      <c r="D106">
+        <f t="shared" si="2"/>
+        <v>19.626657899892226</v>
+      </c>
+      <c r="G106">
+        <v>-540.32507299999997</v>
+      </c>
+      <c r="H106">
+        <v>450.00836199999998</v>
+      </c>
+      <c r="I106">
+        <f t="shared" si="3"/>
+        <v>19.359450381827241</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" s="4"/>
+      <c r="B107">
+        <v>648.36328100000003</v>
+      </c>
+      <c r="C107">
+        <v>499.98474099999999</v>
+      </c>
+      <c r="D107">
+        <f t="shared" si="2"/>
+        <v>19.635752287826175</v>
+      </c>
+      <c r="G107">
+        <v>-643.26971400000002</v>
+      </c>
+      <c r="H107">
+        <v>499.95803799999999</v>
+      </c>
+      <c r="I107">
+        <f t="shared" si="3"/>
+        <v>19.712286505289661</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" s="4"/>
+      <c r="B108">
+        <v>762.668091</v>
+      </c>
+      <c r="C108">
+        <v>550.00390600000003</v>
+      </c>
+      <c r="D108">
+        <f t="shared" si="2"/>
+        <v>19.915810510909353</v>
+      </c>
+      <c r="G108">
+        <v>-754.83807400000001</v>
+      </c>
+      <c r="H108">
+        <v>549.95263699999998</v>
+      </c>
+      <c r="I108">
+        <f t="shared" si="3"/>
+        <v>20.016972378613858</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" s="4"/>
+      <c r="B109">
+        <v>895.23895300000004</v>
+      </c>
+      <c r="C109">
+        <v>599.92224099999999</v>
+      </c>
+      <c r="D109">
+        <f t="shared" si="2"/>
+        <v>20.050512486863695</v>
+      </c>
+      <c r="G109">
+        <v>-879.464294</v>
+      </c>
+      <c r="H109">
+        <v>600.01043700000002</v>
+      </c>
+      <c r="I109">
+        <f t="shared" si="3"/>
+        <v>20.232506980900244</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" s="4"/>
+      <c r="B110">
+        <v>1035.444336</v>
+      </c>
+      <c r="C110">
+        <v>649.98028599999998</v>
+      </c>
+      <c r="D110">
+        <f t="shared" si="2"/>
+        <v>20.199322643408284</v>
+      </c>
+      <c r="G110">
+        <v>-995.65014599999995</v>
+      </c>
+      <c r="H110">
+        <v>649.98388699999998</v>
+      </c>
+      <c r="I110">
+        <f t="shared" si="3"/>
+        <v>20.599145717891858</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" s="4"/>
+      <c r="B111">
+        <v>1185.5546879999999</v>
+      </c>
+      <c r="C111">
+        <v>699.96313499999997</v>
+      </c>
+      <c r="D111">
+        <f t="shared" si="2"/>
+        <v>20.328923029224622</v>
+      </c>
+      <c r="G111">
+        <v>-1122.9995120000001</v>
+      </c>
+      <c r="H111">
+        <v>700.05969200000004</v>
+      </c>
+      <c r="I111">
+        <f t="shared" si="3"/>
+        <v>20.890329438544811</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" s="4"/>
+      <c r="B112">
+        <v>1306.0634769999999</v>
+      </c>
+      <c r="C112">
+        <v>736.68737799999997</v>
+      </c>
+      <c r="D112">
+        <f t="shared" si="2"/>
+        <v>20.384548022968406</v>
+      </c>
+      <c r="G112">
+        <v>-1236.021851</v>
+      </c>
+      <c r="H112">
+        <v>737.88812299999995</v>
+      </c>
+      <c r="I112">
+        <f t="shared" si="3"/>
+        <v>20.9883088218326</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" s="4"/>
+      <c r="B113" s="5">
+        <f>(C113/D112)^2</f>
+        <v>1540.2024185155876</v>
+      </c>
+      <c r="C113">
+        <v>800</v>
+      </c>
+      <c r="G113" s="5">
+        <f>(H113/I112)^2</f>
+        <v>1452.8644006184686</v>
+      </c>
+      <c r="H113">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" s="4"/>
+      <c r="B114">
+        <v>1500</v>
+      </c>
+      <c r="C114" s="5">
+        <f>SQRT(B114)*D112</f>
+        <v>789.49015012921961</v>
+      </c>
+      <c r="G114">
+        <v>1500</v>
+      </c>
+      <c r="H114" s="5">
+        <f>SQRT(G114)*I112</f>
+        <v>812.87370532015871</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B115">
+        <v>23.515035999999998</v>
+      </c>
+      <c r="C115">
+        <v>99.927383000000006</v>
+      </c>
+      <c r="D115">
+        <f t="shared" si="2"/>
+        <v>20.606853796580403</v>
+      </c>
+      <c r="G115">
+        <v>-23.401871</v>
+      </c>
+      <c r="H115">
+        <v>99.910606000000001</v>
+      </c>
+      <c r="I115">
+        <f t="shared" si="3"/>
+        <v>20.65315016156601</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" s="4"/>
+      <c r="B116">
+        <v>58.597237</v>
+      </c>
+      <c r="C116">
+        <v>149.96293600000001</v>
+      </c>
+      <c r="D116">
+        <f t="shared" si="2"/>
+        <v>19.590493000768234</v>
+      </c>
+      <c r="G116">
+        <v>-57.63203</v>
+      </c>
+      <c r="H116">
+        <v>149.95867899999999</v>
+      </c>
+      <c r="I116">
+        <f t="shared" si="3"/>
+        <v>19.753299447844284</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" s="4"/>
+      <c r="B117">
+        <v>109.065353</v>
+      </c>
+      <c r="C117">
+        <v>199.98608400000001</v>
+      </c>
+      <c r="D117">
+        <f t="shared" si="2"/>
+        <v>19.149452946261817</v>
+      </c>
+      <c r="G117">
+        <v>-107.07856</v>
+      </c>
+      <c r="H117">
+        <v>200.007385</v>
+      </c>
+      <c r="I117">
+        <f t="shared" si="3"/>
+        <v>19.328349526417135</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" s="4"/>
+      <c r="B118">
+        <v>177.593704</v>
+      </c>
+      <c r="C118">
+        <v>249.97995</v>
+      </c>
+      <c r="D118">
+        <f t="shared" si="2"/>
+        <v>18.758210031119567</v>
+      </c>
+      <c r="G118">
+        <v>-174.828079</v>
+      </c>
+      <c r="H118">
+        <v>250.004898</v>
+      </c>
+      <c r="I118">
+        <f t="shared" si="3"/>
+        <v>18.907883793171433</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" s="4"/>
+      <c r="B119">
+        <v>261.19293199999998</v>
+      </c>
+      <c r="C119">
+        <v>299.99096700000001</v>
+      </c>
+      <c r="D119">
+        <f t="shared" si="2"/>
+        <v>18.562115370126673</v>
+      </c>
+      <c r="G119">
+        <v>-256.99340799999999</v>
+      </c>
+      <c r="H119">
+        <v>299.97161899999998</v>
+      </c>
+      <c r="I119">
+        <f t="shared" si="3"/>
+        <v>18.711955468962323</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" s="4"/>
+      <c r="B120">
+        <v>361.91787699999998</v>
+      </c>
+      <c r="C120">
+        <v>349.98931900000002</v>
+      </c>
+      <c r="D120">
+        <f t="shared" si="2"/>
+        <v>18.397117107297376</v>
+      </c>
+      <c r="G120">
+        <v>-353.586884</v>
+      </c>
+      <c r="H120">
+        <v>349.99319500000001</v>
+      </c>
+      <c r="I120">
+        <f t="shared" si="3"/>
+        <v>18.612792121189649</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" s="4"/>
+      <c r="B121">
+        <v>491.23602299999999</v>
+      </c>
+      <c r="C121">
+        <v>399.97668499999997</v>
+      </c>
+      <c r="D121">
+        <f t="shared" si="2"/>
+        <v>18.046358196835609</v>
+      </c>
+      <c r="G121">
+        <v>-479.65103099999999</v>
+      </c>
+      <c r="H121">
+        <v>399.95715300000001</v>
+      </c>
+      <c r="I121">
+        <f t="shared" si="3"/>
+        <v>18.262102546960833</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122" s="4"/>
+      <c r="B122">
+        <v>638.67816200000004</v>
+      </c>
+      <c r="C122">
+        <v>449.97967499999999</v>
+      </c>
+      <c r="D122">
+        <f t="shared" si="2"/>
+        <v>17.805405317980071</v>
+      </c>
+      <c r="G122">
+        <v>-620.61908000000005</v>
+      </c>
+      <c r="H122">
+        <v>449.98962399999999</v>
+      </c>
+      <c r="I122">
+        <f t="shared" si="3"/>
+        <v>18.063002340586731</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123" s="4"/>
+      <c r="B123">
+        <v>781.57794200000001</v>
+      </c>
+      <c r="C123">
+        <v>499.96069299999999</v>
+      </c>
+      <c r="D123">
+        <f t="shared" si="2"/>
+        <v>17.88338450757611</v>
+      </c>
+      <c r="G123">
+        <v>-777.21405000000004</v>
+      </c>
+      <c r="H123">
+        <v>500.00436400000001</v>
+      </c>
+      <c r="I123">
+        <f t="shared" si="3"/>
+        <v>17.935086408751037</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124" s="4"/>
+      <c r="B124">
+        <v>920.77233899999999</v>
+      </c>
+      <c r="C124">
+        <v>549.97589100000005</v>
+      </c>
+      <c r="D124">
+        <f t="shared" si="2"/>
+        <v>18.124561989157712</v>
+      </c>
+      <c r="G124">
+        <v>-945.19494599999996</v>
+      </c>
+      <c r="H124">
+        <v>549.96215800000004</v>
+      </c>
+      <c r="I124">
+        <f t="shared" si="3"/>
+        <v>17.888425312101223</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125" s="4"/>
+      <c r="B125">
+        <v>1068.8895259999999</v>
+      </c>
+      <c r="C125">
+        <v>599.95111099999997</v>
+      </c>
+      <c r="D125">
+        <f t="shared" si="2"/>
+        <v>18.35056545556629</v>
+      </c>
+      <c r="G125">
+        <v>-1094.982422</v>
+      </c>
+      <c r="H125">
+        <v>599.92639199999996</v>
+      </c>
+      <c r="I125">
+        <f t="shared" si="3"/>
+        <v>18.129857650084922</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126" s="4"/>
+      <c r="B126">
+        <v>1226.119629</v>
+      </c>
+      <c r="C126">
+        <v>649.93457000000001</v>
+      </c>
+      <c r="D126">
+        <f t="shared" si="2"/>
+        <v>18.561078826201985</v>
+      </c>
+      <c r="G126">
+        <v>-1229.193726</v>
+      </c>
+      <c r="H126">
+        <v>649.99993900000004</v>
+      </c>
+      <c r="I126">
+        <f t="shared" si="3"/>
+        <v>18.539719044197994</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127" s="4"/>
+      <c r="B127">
+        <v>1406.8808590000001</v>
+      </c>
+      <c r="C127">
+        <v>699.97808799999996</v>
+      </c>
+      <c r="D127">
+        <f t="shared" si="2"/>
+        <v>18.661896851375957</v>
+      </c>
+      <c r="G127">
+        <v>-1387.703857</v>
+      </c>
+      <c r="H127">
+        <v>699.91235400000005</v>
+      </c>
+      <c r="I127">
+        <f t="shared" si="3"/>
+        <v>18.788636380475065</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128" s="4"/>
+      <c r="B128">
+        <v>1563.0802000000001</v>
+      </c>
+      <c r="C128">
+        <v>737.419983</v>
+      </c>
+      <c r="D128">
+        <f t="shared" si="2"/>
+        <v>18.651951232764649</v>
+      </c>
+      <c r="G128">
+        <v>-1541.028687</v>
+      </c>
+      <c r="H128">
+        <v>737.78747599999997</v>
+      </c>
+      <c r="I128">
+        <f t="shared" si="3"/>
+        <v>18.794289707558473</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" s="4"/>
+      <c r="B129" s="5">
+        <f>(C129/D128)^2</f>
+        <v>1839.6340162740937</v>
+      </c>
+      <c r="C129">
+        <v>800</v>
+      </c>
+      <c r="G129" s="5">
+        <f>(H129/I128)^2</f>
+        <v>1811.8746125912348</v>
+      </c>
+      <c r="H129">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" s="4"/>
+      <c r="B130">
+        <v>1500</v>
+      </c>
+      <c r="C130" s="5">
+        <f>SQRT(B130)*D128</f>
+        <v>722.38696498770378</v>
+      </c>
+      <c r="G130">
+        <v>1500</v>
+      </c>
+      <c r="H130" s="5">
+        <f>SQRT(G130)*I128</f>
+        <v>727.8997104117143</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A67:A82"/>
+    <mergeCell ref="A83:A98"/>
+    <mergeCell ref="A99:A114"/>
+    <mergeCell ref="A115:A130"/>
+    <mergeCell ref="A2:A17"/>
+    <mergeCell ref="A18:A33"/>
+    <mergeCell ref="A34:A49"/>
+    <mergeCell ref="A50:A65"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/V2.2探头测试记录.xlsx
+++ b/V2.2探头测试记录.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git-doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39FD4141-6025-4F0C-817E-C316B79AA651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1929F04F-E2CC-4946-88A0-93DB8B4337FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="230" yWindow="1000" windowWidth="19200" windowHeight="14510" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="10-12" sheetId="1" r:id="rId1"/>
     <sheet name="10-22" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="10-30" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="49">
   <si>
     <t>型号</t>
   </si>
@@ -134,6 +134,82 @@
   <si>
     <t>28*6mm</t>
   </si>
+  <si>
+    <t>探头类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>环境温度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20℃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>环境湿度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>流量(L/min)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>压差正(Pa)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>压差上(Pa)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>压差下(Pa)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>压差右(Pa)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>26*9mm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>26*8mm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>26*7mm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>26*6mm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>28*9mm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>28*8mm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>28*7mm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>28*6mm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>54%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -177,15 +253,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -208,13 +290,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -227,10 +320,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1393,7 +1504,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K133" sqref="K133"/>
     </sheetView>
   </sheetViews>
@@ -1430,7 +1541,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B2">
@@ -1455,7 +1566,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
+      <c r="A3" s="8"/>
       <c r="B3">
         <v>39.395657</v>
       </c>
@@ -1478,7 +1589,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
+      <c r="A4" s="8"/>
       <c r="B4">
         <v>75.242500000000007</v>
       </c>
@@ -1501,7 +1612,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
+      <c r="A5" s="8"/>
       <c r="B5">
         <v>124.71122699999999</v>
       </c>
@@ -1524,7 +1635,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
+      <c r="A6" s="8"/>
       <c r="B6">
         <v>184.849075</v>
       </c>
@@ -1547,7 +1658,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
+      <c r="A7" s="8"/>
       <c r="B7">
         <v>255.16932700000001</v>
       </c>
@@ -1570,7 +1681,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
+      <c r="A8" s="8"/>
       <c r="B8">
         <v>340.52365099999997</v>
       </c>
@@ -1593,7 +1704,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
+      <c r="A9" s="8"/>
       <c r="B9">
         <v>433.67776500000002</v>
       </c>
@@ -1616,7 +1727,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
+      <c r="A10" s="8"/>
       <c r="B10">
         <v>535.57232699999997</v>
       </c>
@@ -1639,7 +1750,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
+      <c r="A11" s="8"/>
       <c r="B11">
         <v>640.40478499999995</v>
       </c>
@@ -1662,7 +1773,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
+      <c r="A12" s="8"/>
       <c r="B12">
         <v>746.17364499999996</v>
       </c>
@@ -1685,7 +1796,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
+      <c r="A13" s="8"/>
       <c r="B13">
         <v>865.81976299999997</v>
       </c>
@@ -1708,7 +1819,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
+      <c r="A14" s="8"/>
       <c r="B14">
         <v>990.47332800000004</v>
       </c>
@@ -1731,7 +1842,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
+      <c r="A15" s="8"/>
       <c r="B15">
         <v>1110.160889</v>
       </c>
@@ -1754,15 +1865,15 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5">
+      <c r="A16" s="8"/>
+      <c r="B16" s="4">
         <f>(C16/D15)^2</f>
         <v>1293.1074822946005</v>
       </c>
       <c r="C16">
         <v>800</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="4">
         <f>(H16/I15)^2</f>
         <v>1209.6783227105309</v>
       </c>
@@ -1771,24 +1882,24 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
+      <c r="A17" s="8"/>
       <c r="B17">
         <v>1500</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="4">
         <f>SQRT(B17)*D15</f>
         <v>861.62502516212339</v>
       </c>
       <c r="G17">
         <v>1500</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="4">
         <f>SQRT(G17)*I15</f>
         <v>890.84196542403936</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B18">
@@ -1813,7 +1924,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
+      <c r="A19" s="8"/>
       <c r="B19">
         <v>46.811230000000002</v>
       </c>
@@ -1836,7 +1947,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
+      <c r="A20" s="8"/>
       <c r="B20">
         <v>88.058623999999995</v>
       </c>
@@ -1859,7 +1970,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
+      <c r="A21" s="8"/>
       <c r="B21">
         <v>144.04530299999999</v>
       </c>
@@ -1882,7 +1993,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
+      <c r="A22" s="8"/>
       <c r="B22">
         <v>210.70001199999999</v>
       </c>
@@ -1905,7 +2016,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
+      <c r="A23" s="8"/>
       <c r="B23">
         <v>288.097443</v>
       </c>
@@ -1928,7 +2039,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
+      <c r="A24" s="8"/>
       <c r="B24">
         <v>379.69879200000003</v>
       </c>
@@ -1951,7 +2062,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
+      <c r="A25" s="8"/>
       <c r="B25">
         <v>476.69454999999999</v>
       </c>
@@ -1974,7 +2085,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
+      <c r="A26" s="8"/>
       <c r="B26">
         <v>583.19665499999996</v>
       </c>
@@ -1997,7 +2108,7 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
+      <c r="A27" s="8"/>
       <c r="B27">
         <v>689.53839100000005</v>
       </c>
@@ -2020,7 +2131,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
+      <c r="A28" s="8"/>
       <c r="B28">
         <v>799.87683100000004</v>
       </c>
@@ -2043,7 +2154,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
+      <c r="A29" s="8"/>
       <c r="B29">
         <v>935.31787099999997</v>
       </c>
@@ -2066,7 +2177,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
+      <c r="A30" s="8"/>
       <c r="B30">
         <v>1080.346436</v>
       </c>
@@ -2089,7 +2200,7 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
+      <c r="A31" s="8"/>
       <c r="B31">
         <v>1198.867798</v>
       </c>
@@ -2112,15 +2223,15 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="5">
+      <c r="A32" s="8"/>
+      <c r="B32" s="4">
         <f>(C32/D31)^2</f>
         <v>1410.1832696249085</v>
       </c>
       <c r="C32">
         <v>800</v>
       </c>
-      <c r="G32" s="5">
+      <c r="G32" s="4">
         <f>(H32/I31)^2</f>
         <v>1304.9099644126347</v>
       </c>
@@ -2129,24 +2240,24 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
+      <c r="A33" s="8"/>
       <c r="B33">
         <v>1500</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="4">
         <f>SQRT(B33)*D31</f>
         <v>825.08337721704152</v>
       </c>
       <c r="G33">
         <v>1500</v>
       </c>
-      <c r="H33" s="5">
+      <c r="H33" s="4">
         <f>SQRT(G33)*I31</f>
         <v>857.71961661411308</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B34">
@@ -2171,7 +2282,7 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
+      <c r="A35" s="8"/>
       <c r="B35">
         <v>51.566422000000003</v>
       </c>
@@ -2194,7 +2305,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
+      <c r="A36" s="8"/>
       <c r="B36">
         <v>97.095946999999995</v>
       </c>
@@ -2217,7 +2328,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
+      <c r="A37" s="8"/>
       <c r="B37">
         <v>159.20289600000001</v>
       </c>
@@ -2240,7 +2351,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
+      <c r="A38" s="8"/>
       <c r="B38">
         <v>232.02758800000001</v>
       </c>
@@ -2263,7 +2374,7 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
+      <c r="A39" s="8"/>
       <c r="B39">
         <v>318.18722500000001</v>
       </c>
@@ -2286,7 +2397,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
+      <c r="A40" s="8"/>
       <c r="B40">
         <v>425.59802200000001</v>
       </c>
@@ -2309,7 +2420,7 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
+      <c r="A41" s="8"/>
       <c r="B41">
         <v>547.94116199999996</v>
       </c>
@@ -2332,7 +2443,7 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
+      <c r="A42" s="8"/>
       <c r="B42">
         <v>671.26470900000004</v>
       </c>
@@ -2355,7 +2466,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
+      <c r="A43" s="8"/>
       <c r="B43">
         <v>787.59533699999997</v>
       </c>
@@ -2378,7 +2489,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
+      <c r="A44" s="8"/>
       <c r="B44">
         <v>926.66894500000001</v>
       </c>
@@ -2401,7 +2512,7 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
+      <c r="A45" s="8"/>
       <c r="B45">
         <v>1070.2601320000001</v>
       </c>
@@ -2424,7 +2535,7 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
+      <c r="A46" s="8"/>
       <c r="B46">
         <v>1216.480591</v>
       </c>
@@ -2447,7 +2558,7 @@
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
+      <c r="A47" s="8"/>
       <c r="B47">
         <v>1347.8980710000001</v>
       </c>
@@ -2470,15 +2581,15 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
-      <c r="B48" s="5">
+      <c r="A48" s="8"/>
+      <c r="B48" s="4">
         <f>(C48/D47)^2</f>
         <v>1573.0585069064982</v>
       </c>
       <c r="C48">
         <v>800</v>
       </c>
-      <c r="G48" s="5">
+      <c r="G48" s="4">
         <f>(H48/I47)^2</f>
         <v>1551.1717407643318</v>
       </c>
@@ -2487,24 +2598,24 @@
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
+      <c r="A49" s="8"/>
       <c r="B49">
         <v>1500</v>
       </c>
-      <c r="C49" s="5">
+      <c r="C49" s="4">
         <f>SQRT(B49)*D47</f>
         <v>781.20169816707403</v>
       </c>
       <c r="G49">
         <v>1500</v>
       </c>
-      <c r="H49" s="5">
+      <c r="H49" s="4">
         <f>SQRT(G49)*I47</f>
         <v>786.6937039290799</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B50">
@@ -2529,7 +2640,7 @@
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="4"/>
+      <c r="A51" s="8"/>
       <c r="B51">
         <v>58.032204</v>
       </c>
@@ -2552,7 +2663,7 @@
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
+      <c r="A52" s="8"/>
       <c r="B52">
         <v>108.219444</v>
       </c>
@@ -2575,7 +2686,7 @@
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="4"/>
+      <c r="A53" s="8"/>
       <c r="B53">
         <v>175.90983600000001</v>
       </c>
@@ -2598,7 +2709,7 @@
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="4"/>
+      <c r="A54" s="8"/>
       <c r="B54">
         <v>255.86073300000001</v>
       </c>
@@ -2621,7 +2732,7 @@
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="4"/>
+      <c r="A55" s="8"/>
       <c r="B55">
         <v>351.95684799999998</v>
       </c>
@@ -2644,7 +2755,7 @@
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="4"/>
+      <c r="A56" s="8"/>
       <c r="B56">
         <v>474.037689</v>
       </c>
@@ -2667,7 +2778,7 @@
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="4"/>
+      <c r="A57" s="8"/>
       <c r="B57">
         <v>614.31774900000005</v>
       </c>
@@ -2690,7 +2801,7 @@
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="4"/>
+      <c r="A58" s="8"/>
       <c r="B58">
         <v>755.34704599999998</v>
       </c>
@@ -2713,7 +2824,7 @@
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="4"/>
+      <c r="A59" s="8"/>
       <c r="B59">
         <v>905.06658900000002</v>
       </c>
@@ -2736,7 +2847,7 @@
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="4"/>
+      <c r="A60" s="8"/>
       <c r="B60">
         <v>1058.365356</v>
       </c>
@@ -2759,7 +2870,7 @@
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="4"/>
+      <c r="A61" s="8"/>
       <c r="B61">
         <v>1214.3276370000001</v>
       </c>
@@ -2782,7 +2893,7 @@
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="4"/>
+      <c r="A62" s="8"/>
       <c r="B62">
         <v>1385.984741</v>
       </c>
@@ -2805,7 +2916,7 @@
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="4"/>
+      <c r="A63" s="8"/>
       <c r="B63">
         <v>1539.2631839999999</v>
       </c>
@@ -2828,15 +2939,15 @@
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="4"/>
-      <c r="B64" s="5">
+      <c r="A64" s="8"/>
+      <c r="B64" s="4">
         <f>(C64/D63)^2</f>
         <v>1807.3363426661303</v>
       </c>
       <c r="C64">
         <v>800</v>
       </c>
-      <c r="G64" s="5">
+      <c r="G64" s="4">
         <f>(H64/I63)^2</f>
         <v>1705.2321866961411</v>
       </c>
@@ -2845,24 +2956,24 @@
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="4"/>
+      <c r="A65" s="8"/>
       <c r="B65">
         <v>1500</v>
       </c>
-      <c r="C65" s="5">
+      <c r="C65" s="4">
         <f>SQRT(B65)*D63</f>
         <v>728.81302525827107</v>
       </c>
       <c r="G65">
         <v>1500</v>
       </c>
-      <c r="H65" s="5">
+      <c r="H65" s="4">
         <f>SQRT(G65)*I63</f>
         <v>750.31539218587147</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="s">
+      <c r="A67" s="8" t="s">
         <v>26</v>
       </c>
       <c r="B67">
@@ -2887,7 +2998,7 @@
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="4"/>
+      <c r="A68" s="8"/>
       <c r="B68">
         <v>37.185702999999997</v>
       </c>
@@ -2910,7 +3021,7 @@
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="4"/>
+      <c r="A69" s="8"/>
       <c r="B69">
         <v>70.753105000000005</v>
       </c>
@@ -2933,7 +3044,7 @@
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="4"/>
+      <c r="A70" s="8"/>
       <c r="B70">
         <v>115.383652</v>
       </c>
@@ -2956,7 +3067,7 @@
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="4"/>
+      <c r="A71" s="8"/>
       <c r="B71">
         <v>170.35754399999999</v>
       </c>
@@ -2979,7 +3090,7 @@
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="4"/>
+      <c r="A72" s="8"/>
       <c r="B72">
         <v>233.98492400000001</v>
       </c>
@@ -3002,7 +3113,7 @@
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="4"/>
+      <c r="A73" s="8"/>
       <c r="B73">
         <v>310.97219799999999</v>
       </c>
@@ -3025,7 +3136,7 @@
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="4"/>
+      <c r="A74" s="8"/>
       <c r="B74">
         <v>391.59802200000001</v>
       </c>
@@ -3048,7 +3159,7 @@
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="4"/>
+      <c r="A75" s="8"/>
       <c r="B75">
         <v>475.44335899999999</v>
       </c>
@@ -3071,7 +3182,7 @@
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="4"/>
+      <c r="A76" s="8"/>
       <c r="B76">
         <v>554.38079800000003</v>
       </c>
@@ -3094,7 +3205,7 @@
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="4"/>
+      <c r="A77" s="8"/>
       <c r="B77">
         <v>653.49078399999996</v>
       </c>
@@ -3117,7 +3228,7 @@
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="4"/>
+      <c r="A78" s="8"/>
       <c r="B78">
         <v>760.60223399999995</v>
       </c>
@@ -3140,7 +3251,7 @@
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="4"/>
+      <c r="A79" s="8"/>
       <c r="B79">
         <v>883.14001499999995</v>
       </c>
@@ -3163,7 +3274,7 @@
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="4"/>
+      <c r="A80" s="8"/>
       <c r="B80">
         <v>1002.684814</v>
       </c>
@@ -3186,15 +3297,15 @@
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="4"/>
-      <c r="B81" s="5">
+      <c r="A81" s="8"/>
+      <c r="B81" s="4">
         <f>(C81/D80)^2</f>
         <v>1168.2796744032657</v>
       </c>
       <c r="C81">
         <v>800</v>
       </c>
-      <c r="G81" s="5">
+      <c r="G81" s="4">
         <f>(H81/I80)^2</f>
         <v>1150.8749695905472</v>
       </c>
@@ -3203,24 +3314,24 @@
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="4"/>
+      <c r="A82" s="8"/>
       <c r="B82">
         <v>1500</v>
       </c>
-      <c r="C82" s="5">
+      <c r="C82" s="4">
         <f>SQRT(B82)*D80</f>
         <v>906.48830624719096</v>
       </c>
       <c r="G82">
         <v>1500</v>
       </c>
-      <c r="H82" s="5">
+      <c r="H82" s="4">
         <f>SQRT(G82)*I80</f>
         <v>913.31700573389685</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="4" t="s">
+      <c r="A83" s="8" t="s">
         <v>27</v>
       </c>
       <c r="B83">
@@ -3245,7 +3356,7 @@
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="4"/>
+      <c r="A84" s="8"/>
       <c r="B84">
         <v>43.492446999999999</v>
       </c>
@@ -3268,7 +3379,7 @@
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="4"/>
+      <c r="A85" s="8"/>
       <c r="B85">
         <v>82.151488999999998</v>
       </c>
@@ -3291,7 +3402,7 @@
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="4"/>
+      <c r="A86" s="8"/>
       <c r="B86">
         <v>134.52560399999999</v>
       </c>
@@ -3314,7 +3425,7 @@
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="4"/>
+      <c r="A87" s="8"/>
       <c r="B87">
         <v>199.10575900000001</v>
       </c>
@@ -3337,7 +3448,7 @@
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="4"/>
+      <c r="A88" s="8"/>
       <c r="B88">
         <v>275.14389</v>
       </c>
@@ -3360,7 +3471,7 @@
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="4"/>
+      <c r="A89" s="8"/>
       <c r="B89">
         <v>369.05261200000001</v>
       </c>
@@ -3383,7 +3494,7 @@
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="4"/>
+      <c r="A90" s="8"/>
       <c r="B90">
         <v>467.65405299999998</v>
       </c>
@@ -3406,7 +3517,7 @@
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="4"/>
+      <c r="A91" s="8"/>
       <c r="B91">
         <v>565.69341999999995</v>
       </c>
@@ -3429,7 +3540,7 @@
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="4"/>
+      <c r="A92" s="8"/>
       <c r="B92">
         <v>654.68450900000005</v>
       </c>
@@ -3452,7 +3563,7 @@
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="4"/>
+      <c r="A93" s="8"/>
       <c r="B93">
         <v>758.56658900000002</v>
       </c>
@@ -3475,7 +3586,7 @@
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" s="4"/>
+      <c r="A94" s="8"/>
       <c r="B94">
         <v>882.47820999999999</v>
       </c>
@@ -3498,7 +3609,7 @@
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="4"/>
+      <c r="A95" s="8"/>
       <c r="B95">
         <v>1019.559509</v>
       </c>
@@ -3521,7 +3632,7 @@
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" s="4"/>
+      <c r="A96" s="8"/>
       <c r="B96">
         <v>1137.410889</v>
       </c>
@@ -3544,15 +3655,15 @@
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" s="4"/>
-      <c r="B97" s="5">
+      <c r="A97" s="8"/>
+      <c r="B97" s="4">
         <f>(C97/D96)^2</f>
         <v>1334.36491457232</v>
       </c>
       <c r="C97">
         <v>800</v>
       </c>
-      <c r="G97" s="5">
+      <c r="G97" s="4">
         <f>(H97/I96)^2</f>
         <v>1257.5635142472813</v>
       </c>
@@ -3561,24 +3672,24 @@
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" s="4"/>
+      <c r="A98" s="8"/>
       <c r="B98">
         <v>1500</v>
       </c>
-      <c r="C98" s="5">
+      <c r="C98" s="4">
         <f>SQRT(B98)*D96</f>
         <v>848.20008063103739</v>
       </c>
       <c r="G98">
         <v>1500</v>
       </c>
-      <c r="H98" s="5">
+      <c r="H98" s="4">
         <f>SQRT(G98)*I96</f>
         <v>873.71673097871064</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="4" t="s">
+      <c r="A99" s="8" t="s">
         <v>28</v>
       </c>
       <c r="B99">
@@ -3603,7 +3714,7 @@
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="4"/>
+      <c r="A100" s="8"/>
       <c r="B100">
         <v>48.985160999999998</v>
       </c>
@@ -3626,7 +3737,7 @@
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" s="4"/>
+      <c r="A101" s="8"/>
       <c r="B101">
         <v>93.013664000000006</v>
       </c>
@@ -3649,7 +3760,7 @@
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102" s="4"/>
+      <c r="A102" s="8"/>
       <c r="B102">
         <v>153.241333</v>
       </c>
@@ -3672,7 +3783,7 @@
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" s="4"/>
+      <c r="A103" s="8"/>
       <c r="B103">
         <v>223.03173799999999</v>
       </c>
@@ -3695,7 +3806,7 @@
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" s="4"/>
+      <c r="A104" s="8"/>
       <c r="B104">
         <v>306.00012199999998</v>
       </c>
@@ -3718,7 +3829,7 @@
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" s="4"/>
+      <c r="A105" s="8"/>
       <c r="B105">
         <v>408.70697000000001</v>
       </c>
@@ -3741,7 +3852,7 @@
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" s="4"/>
+      <c r="A106" s="8"/>
       <c r="B106">
         <v>525.58898899999997</v>
       </c>
@@ -3764,7 +3875,7 @@
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" s="4"/>
+      <c r="A107" s="8"/>
       <c r="B107">
         <v>648.36328100000003</v>
       </c>
@@ -3787,7 +3898,7 @@
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A108" s="4"/>
+      <c r="A108" s="8"/>
       <c r="B108">
         <v>762.668091</v>
       </c>
@@ -3810,7 +3921,7 @@
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109" s="4"/>
+      <c r="A109" s="8"/>
       <c r="B109">
         <v>895.23895300000004</v>
       </c>
@@ -3833,7 +3944,7 @@
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A110" s="4"/>
+      <c r="A110" s="8"/>
       <c r="B110">
         <v>1035.444336</v>
       </c>
@@ -3856,7 +3967,7 @@
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A111" s="4"/>
+      <c r="A111" s="8"/>
       <c r="B111">
         <v>1185.5546879999999</v>
       </c>
@@ -3879,7 +3990,7 @@
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A112" s="4"/>
+      <c r="A112" s="8"/>
       <c r="B112">
         <v>1306.0634769999999</v>
       </c>
@@ -3902,15 +4013,15 @@
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A113" s="4"/>
-      <c r="B113" s="5">
+      <c r="A113" s="8"/>
+      <c r="B113" s="4">
         <f>(C113/D112)^2</f>
         <v>1540.2024185155876</v>
       </c>
       <c r="C113">
         <v>800</v>
       </c>
-      <c r="G113" s="5">
+      <c r="G113" s="4">
         <f>(H113/I112)^2</f>
         <v>1452.8644006184686</v>
       </c>
@@ -3919,24 +4030,24 @@
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A114" s="4"/>
+      <c r="A114" s="8"/>
       <c r="B114">
         <v>1500</v>
       </c>
-      <c r="C114" s="5">
+      <c r="C114" s="4">
         <f>SQRT(B114)*D112</f>
         <v>789.49015012921961</v>
       </c>
       <c r="G114">
         <v>1500</v>
       </c>
-      <c r="H114" s="5">
+      <c r="H114" s="4">
         <f>SQRT(G114)*I112</f>
         <v>812.87370532015871</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A115" s="4" t="s">
+      <c r="A115" s="8" t="s">
         <v>29</v>
       </c>
       <c r="B115">
@@ -3961,7 +4072,7 @@
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A116" s="4"/>
+      <c r="A116" s="8"/>
       <c r="B116">
         <v>58.597237</v>
       </c>
@@ -3984,7 +4095,7 @@
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A117" s="4"/>
+      <c r="A117" s="8"/>
       <c r="B117">
         <v>109.065353</v>
       </c>
@@ -4007,7 +4118,7 @@
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A118" s="4"/>
+      <c r="A118" s="8"/>
       <c r="B118">
         <v>177.593704</v>
       </c>
@@ -4030,7 +4141,7 @@
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A119" s="4"/>
+      <c r="A119" s="8"/>
       <c r="B119">
         <v>261.19293199999998</v>
       </c>
@@ -4053,7 +4164,7 @@
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A120" s="4"/>
+      <c r="A120" s="8"/>
       <c r="B120">
         <v>361.91787699999998</v>
       </c>
@@ -4076,7 +4187,7 @@
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A121" s="4"/>
+      <c r="A121" s="8"/>
       <c r="B121">
         <v>491.23602299999999</v>
       </c>
@@ -4099,7 +4210,7 @@
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A122" s="4"/>
+      <c r="A122" s="8"/>
       <c r="B122">
         <v>638.67816200000004</v>
       </c>
@@ -4122,7 +4233,7 @@
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A123" s="4"/>
+      <c r="A123" s="8"/>
       <c r="B123">
         <v>781.57794200000001</v>
       </c>
@@ -4145,7 +4256,7 @@
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A124" s="4"/>
+      <c r="A124" s="8"/>
       <c r="B124">
         <v>920.77233899999999</v>
       </c>
@@ -4168,7 +4279,7 @@
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A125" s="4"/>
+      <c r="A125" s="8"/>
       <c r="B125">
         <v>1068.8895259999999</v>
       </c>
@@ -4191,7 +4302,7 @@
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A126" s="4"/>
+      <c r="A126" s="8"/>
       <c r="B126">
         <v>1226.119629</v>
       </c>
@@ -4214,7 +4325,7 @@
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A127" s="4"/>
+      <c r="A127" s="8"/>
       <c r="B127">
         <v>1406.8808590000001</v>
       </c>
@@ -4237,7 +4348,7 @@
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A128" s="4"/>
+      <c r="A128" s="8"/>
       <c r="B128">
         <v>1563.0802000000001</v>
       </c>
@@ -4260,15 +4371,15 @@
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="4"/>
-      <c r="B129" s="5">
+      <c r="A129" s="8"/>
+      <c r="B129" s="4">
         <f>(C129/D128)^2</f>
         <v>1839.6340162740937</v>
       </c>
       <c r="C129">
         <v>800</v>
       </c>
-      <c r="G129" s="5">
+      <c r="G129" s="4">
         <f>(H129/I128)^2</f>
         <v>1811.8746125912348</v>
       </c>
@@ -4277,18 +4388,18 @@
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A130" s="4"/>
+      <c r="A130" s="8"/>
       <c r="B130">
         <v>1500</v>
       </c>
-      <c r="C130" s="5">
+      <c r="C130" s="4">
         <f>SQRT(B130)*D128</f>
         <v>722.38696498770378</v>
       </c>
       <c r="G130">
         <v>1500</v>
       </c>
-      <c r="H130" s="5">
+      <c r="H130" s="4">
         <f>SQRT(G130)*I128</f>
         <v>727.8997104117143</v>
       </c>
@@ -4312,12 +4423,515 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="6" width="12.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="1">
+        <v>100</v>
+      </c>
+      <c r="C3" s="1">
+        <v>16.2470417</v>
+      </c>
+      <c r="D3" s="1">
+        <v>16.406774500000001</v>
+      </c>
+      <c r="E3">
+        <v>15.842473</v>
+      </c>
+      <c r="F3" s="1">
+        <v>16.1185036</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
+      <c r="B4" s="1">
+        <v>200</v>
+      </c>
+      <c r="C4" s="1">
+        <v>77.267387400000004</v>
+      </c>
+      <c r="D4" s="1">
+        <v>77.641937299999995</v>
+      </c>
+      <c r="E4" s="1">
+        <v>76.197357199999999</v>
+      </c>
+      <c r="F4" s="1">
+        <v>76.318695099999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="9"/>
+      <c r="B5" s="1">
+        <v>300</v>
+      </c>
+      <c r="C5" s="1">
+        <v>191.91123999999999</v>
+      </c>
+      <c r="D5" s="1">
+        <v>193.15469400000001</v>
+      </c>
+      <c r="E5" s="1">
+        <v>187.60484299999999</v>
+      </c>
+      <c r="F5" s="1">
+        <v>189.412521</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="1">
+        <v>100</v>
+      </c>
+      <c r="C6" s="1">
+        <v>19.371727</v>
+      </c>
+      <c r="D6" s="7">
+        <v>19.429893499999999</v>
+      </c>
+      <c r="E6" s="1">
+        <v>19.2021503</v>
+      </c>
+      <c r="F6" s="1">
+        <v>19.280075100000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="9"/>
+      <c r="B7" s="1">
+        <v>200</v>
+      </c>
+      <c r="C7" s="1">
+        <v>90.711570699999996</v>
+      </c>
+      <c r="D7" s="1">
+        <v>90.840889000000004</v>
+      </c>
+      <c r="E7" s="1">
+        <v>90.055503799999997</v>
+      </c>
+      <c r="F7" s="1">
+        <v>90.9416504</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="9"/>
+      <c r="B8" s="1">
+        <v>300</v>
+      </c>
+      <c r="C8" s="1">
+        <v>221.99061599999999</v>
+      </c>
+      <c r="D8" s="1">
+        <v>223.74438499999999</v>
+      </c>
+      <c r="E8" s="1">
+        <v>220.29864499999999</v>
+      </c>
+      <c r="F8" s="1">
+        <v>222.639679</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="1">
+        <v>100</v>
+      </c>
+      <c r="C9" s="1">
+        <v>20.7483845</v>
+      </c>
+      <c r="D9" s="1">
+        <v>20.766809500000001</v>
+      </c>
+      <c r="E9" s="1">
+        <v>20.643598600000001</v>
+      </c>
+      <c r="F9" s="1">
+        <v>20.627542500000001</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="9"/>
+      <c r="B10" s="1">
+        <v>200</v>
+      </c>
+      <c r="C10" s="10">
+        <v>98.424293500000005</v>
+      </c>
+      <c r="D10" s="10">
+        <v>97.930969200000007</v>
+      </c>
+      <c r="E10" s="1">
+        <v>98.086036699999994</v>
+      </c>
+      <c r="F10" s="1">
+        <v>98.162056000000007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+      <c r="B11" s="1">
+        <v>300</v>
+      </c>
+      <c r="C11" s="10">
+        <v>240.544937</v>
+      </c>
+      <c r="D11" s="10">
+        <v>240.45590200000001</v>
+      </c>
+      <c r="E11" s="1">
+        <v>240.615723</v>
+      </c>
+      <c r="F11" s="1">
+        <v>240.48263499999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="1">
+        <v>100</v>
+      </c>
+      <c r="C12" s="10">
+        <v>23.5719013</v>
+      </c>
+      <c r="D12" s="10">
+        <v>23.5207443</v>
+      </c>
+      <c r="E12" s="1">
+        <v>23.4764214</v>
+      </c>
+      <c r="F12" s="1">
+        <v>23.570125600000001</v>
+      </c>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" s="1">
+        <v>200</v>
+      </c>
+      <c r="C13" s="10">
+        <v>112.963409</v>
+      </c>
+      <c r="D13" s="10">
+        <v>112.46882600000001</v>
+      </c>
+      <c r="E13" s="1">
+        <v>112.401253</v>
+      </c>
+      <c r="F13" s="1">
+        <v>112.837379</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+      <c r="B14" s="1">
+        <v>300</v>
+      </c>
+      <c r="C14" s="10">
+        <v>273.66976899999997</v>
+      </c>
+      <c r="D14" s="10">
+        <v>272.87966899999998</v>
+      </c>
+      <c r="E14" s="1">
+        <v>273.08642600000002</v>
+      </c>
+      <c r="F14" s="1">
+        <v>272.88445999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="1">
+        <v>100</v>
+      </c>
+      <c r="C15" s="1">
+        <v>15.0410757</v>
+      </c>
+      <c r="D15" s="1">
+        <v>15.198637</v>
+      </c>
+      <c r="E15" s="1">
+        <v>14.590976700000001</v>
+      </c>
+      <c r="F15" s="1">
+        <v>14.975334200000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
+      <c r="B16" s="1">
+        <v>200</v>
+      </c>
+      <c r="C16" s="1">
+        <v>72.585166900000004</v>
+      </c>
+      <c r="D16" s="1">
+        <v>72.899406400000004</v>
+      </c>
+      <c r="E16" s="1">
+        <v>70.517005900000001</v>
+      </c>
+      <c r="F16" s="1">
+        <v>71.620208700000006</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="1">
+        <v>300</v>
+      </c>
+      <c r="C17" s="1">
+        <v>179.98835800000001</v>
+      </c>
+      <c r="D17" s="1">
+        <v>184.33227500000001</v>
+      </c>
+      <c r="E17" s="1">
+        <v>173.254807</v>
+      </c>
+      <c r="F17" s="1">
+        <v>176.75848400000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="1">
+        <v>100</v>
+      </c>
+      <c r="C18" s="1">
+        <v>16.984092700000001</v>
+      </c>
+      <c r="D18" s="1">
+        <v>17.063303000000001</v>
+      </c>
+      <c r="E18" s="1">
+        <v>16.5503654</v>
+      </c>
+      <c r="F18" s="1">
+        <v>16.827522299999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="B19" s="1">
+        <v>200</v>
+      </c>
+      <c r="C19" s="1">
+        <v>81.531272900000005</v>
+      </c>
+      <c r="D19" s="1">
+        <v>81.337364199999996</v>
+      </c>
+      <c r="E19" s="1">
+        <v>78.587158200000005</v>
+      </c>
+      <c r="F19" s="1">
+        <v>80.614326500000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="9"/>
+      <c r="B20" s="1">
+        <v>300</v>
+      </c>
+      <c r="C20" s="1">
+        <v>202.82583600000001</v>
+      </c>
+      <c r="D20" s="1">
+        <v>202.341995</v>
+      </c>
+      <c r="E20" s="1">
+        <v>195.73898299999999</v>
+      </c>
+      <c r="F20" s="1">
+        <v>200.75482199999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="1">
+        <v>100</v>
+      </c>
+      <c r="C21" s="1">
+        <v>19.436506300000001</v>
+      </c>
+      <c r="D21" s="1">
+        <v>19.4715767</v>
+      </c>
+      <c r="E21" s="1">
+        <v>19.1225071</v>
+      </c>
+      <c r="F21" s="1">
+        <v>19.303604100000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
+      <c r="B22" s="1">
+        <v>200</v>
+      </c>
+      <c r="C22" s="1">
+        <v>93.237174999999993</v>
+      </c>
+      <c r="D22" s="1">
+        <v>92.687225299999994</v>
+      </c>
+      <c r="E22" s="1">
+        <v>90.947418200000001</v>
+      </c>
+      <c r="F22" s="1">
+        <v>92.816284199999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
+      <c r="B23" s="1">
+        <v>300</v>
+      </c>
+      <c r="C23" s="1">
+        <v>229.62965399999999</v>
+      </c>
+      <c r="D23" s="1">
+        <v>229.447327</v>
+      </c>
+      <c r="E23" s="1">
+        <v>226.974716</v>
+      </c>
+      <c r="F23" s="1">
+        <v>230.30898999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="1">
+        <v>100</v>
+      </c>
+      <c r="C24" s="1">
+        <v>22.793844199999999</v>
+      </c>
+      <c r="D24" s="1">
+        <v>22.7124004</v>
+      </c>
+      <c r="E24" s="1">
+        <v>22.6396275</v>
+      </c>
+      <c r="F24" s="1">
+        <v>22.644416799999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="9"/>
+      <c r="B25" s="1">
+        <v>200</v>
+      </c>
+      <c r="C25" s="1">
+        <v>109.62793000000001</v>
+      </c>
+      <c r="D25" s="1">
+        <v>109.269165</v>
+      </c>
+      <c r="E25" s="1">
+        <v>107.906868</v>
+      </c>
+      <c r="F25" s="1">
+        <v>109.657715</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="9"/>
+      <c r="B26" s="1">
+        <v>300</v>
+      </c>
+      <c r="C26" s="1">
+        <v>269.61676</v>
+      </c>
+      <c r="D26" s="1">
+        <v>268.80276500000002</v>
+      </c>
+      <c r="E26" s="1">
+        <v>267.40698200000003</v>
+      </c>
+      <c r="F26" s="1">
+        <v>271.97717299999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:A20"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
